--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="62140" yWindow="40" windowWidth="25360" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="13140" yWindow="2500" windowWidth="32040" windowHeight="21460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>TPU</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>this work</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -371,8 +374,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -403,9 +424,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,59 +431,69 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -501,6 +529,15 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -536,6 +573,15 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -865,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:O36"/>
+  <dimension ref="D1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:H29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -877,600 +923,705 @@
     <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14">
-      <c r="H1" s="5" t="s">
+    <row r="1" spans="4:18">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3">
+      <c r="E1" s="3">
         <v>60000000000</v>
       </c>
     </row>
-    <row r="2" spans="4:14">
-      <c r="H2" s="5" t="s">
+    <row r="2" spans="4:18">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
+      <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="4:14">
-      <c r="E3" s="2" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="4:18">
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="4:18">
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="4:18">
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="4:18">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="4:14">
-      <c r="D4" s="1" t="s">
+    <row r="7" spans="4:18">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E7" s="3">
         <v>36000000000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F7" s="3">
         <v>32000000000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G7" s="3">
         <f>4096*606000000/8</f>
         <v>310272000000</v>
       </c>
-      <c r="H4" s="3">
-        <f>H5/8</f>
+      <c r="H7" s="33">
+        <v>720000000000</v>
+      </c>
+      <c r="I7" s="3">
+        <f>I8/8</f>
         <v>3250000000000</v>
       </c>
-      <c r="J4" s="15">
-        <f>$H$4/E4</f>
+      <c r="K7" s="14">
+        <f>$I$7/E7</f>
         <v>90.277777777777771</v>
       </c>
-      <c r="K4" s="15">
-        <f>$H$4/F4</f>
+      <c r="L7" s="14">
+        <f>$I$7/F7</f>
         <v>101.5625</v>
       </c>
-      <c r="L4" s="15">
-        <f>$H$4/G4</f>
+      <c r="M7" s="14">
+        <f>$I$7/G7</f>
         <v>10.474680280528053</v>
       </c>
-      <c r="N4" s="13">
-        <f>L4*G6/H10</f>
+      <c r="O7" s="12">
+        <f>M7*G9/I13</f>
         <v>2.2304085877337738</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
-      <c r="D5" s="1" t="s">
+    <row r="8" spans="4:18">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <f>E4*8</f>
+      <c r="E8" s="2">
+        <f>E7*8</f>
         <v>288000000000</v>
       </c>
-      <c r="F5" s="2">
-        <f>F4*8</f>
+      <c r="F8" s="2">
+        <f>F7*8</f>
         <v>256000000000</v>
       </c>
-      <c r="G5" s="3">
-        <f>G4*8</f>
+      <c r="G8" s="3">
+        <f>G7*8</f>
         <v>2482176000000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H8" s="2">
+        <f>H7*8</f>
+        <v>5760000000000</v>
+      </c>
+      <c r="I8" s="3">
         <v>26000000000000</v>
       </c>
     </row>
-    <row r="6" spans="4:14" s="13" customFormat="1">
-      <c r="D6" s="11" t="s">
+    <row r="9" spans="4:18" s="12" customFormat="1">
+      <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E9" s="4">
         <v>40</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F9" s="4">
         <v>11</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G9" s="4">
         <v>15.97</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H9" s="35">
+        <v>250</v>
+      </c>
+      <c r="I9" s="4">
         <v>75</v>
       </c>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="4:14">
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="4:18">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E10" s="3">
         <v>700000000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F10" s="3">
         <v>1000000000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G10" s="3">
         <v>606000000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H10" s="33">
+        <v>1300000000</v>
+      </c>
+      <c r="I10" s="3">
         <v>500000000</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
-      <c r="D8" s="1" t="s">
+    <row r="11" spans="4:18">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="4:14" s="7" customFormat="1">
-      <c r="D9" s="8" t="s">
+    <row r="12" spans="4:18" s="7" customFormat="1">
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
-        <f>$I$2/E5</f>
+      <c r="E12" s="9">
+        <f>$E$2/E8</f>
         <v>90.277777777777771</v>
       </c>
-      <c r="F9" s="9">
-        <f>$I$2/F5</f>
+      <c r="F12" s="9">
+        <f>$E$2/F8</f>
         <v>101.5625</v>
       </c>
-      <c r="G9" s="9">
-        <f>$I$2/G5</f>
+      <c r="G12" s="9">
+        <f>$E$2/G8</f>
         <v>10.474680280528053</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:14">
-      <c r="D10" s="1" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="4:18">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
-        <f>E9*E6</f>
+      <c r="E13" s="3">
+        <f>E12*E9</f>
         <v>3611.1111111111109</v>
       </c>
-      <c r="F10" s="3">
-        <f>F9*F6</f>
+      <c r="F13" s="3">
+        <f>F12*F9</f>
         <v>1117.1875</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H13" s="3">
+        <v>250</v>
+      </c>
+      <c r="I13" s="2">
         <v>75</v>
       </c>
-      <c r="I10" s="3">
-        <f>F10/H10</f>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>250</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <f>F14/F9</f>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2">
+        <v>99</v>
+      </c>
+      <c r="G16" s="9">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2">
+        <v>561</v>
+      </c>
+      <c r="I16" s="2">
+        <v>350</v>
+      </c>
+      <c r="K16" s="15">
+        <f>$I$16/E16</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="L16" s="15">
+        <f>$I$16/F16</f>
+        <v>3.5353535353535355</v>
+      </c>
+      <c r="M16" s="15">
+        <f>$I$16/G16</f>
+        <v>5.2238805970149258</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <f>F18*1000/F17</f>
+        <v>304.87804878048786</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>36000000</v>
+      </c>
+      <c r="H21" s="3">
+        <f>16000000000</f>
+        <v>16000000000</v>
+      </c>
+      <c r="I21" s="3">
+        <f>I22/8</f>
+        <v>8000000000</v>
+      </c>
+      <c r="K21" s="15">
+        <f>$I$21/E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
+        <f>$I$21/F21</f>
+        <v>8</v>
+      </c>
+      <c r="M21" s="15">
+        <f>$I$21/G21</f>
+        <v>222.22222222222223</v>
+      </c>
+      <c r="O21" s="7">
+        <f>$I$22/G21</f>
+        <v>1777.7777777777778</v>
+      </c>
+      <c r="R21" s="33">
+        <v>16000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3">
+        <f>E21*8</f>
+        <v>64000000000</v>
+      </c>
+      <c r="F22" s="3">
+        <f>F21*8</f>
+        <v>8000000000</v>
+      </c>
+      <c r="G22" s="3">
+        <f>G21*8</f>
+        <v>288000000</v>
+      </c>
+      <c r="H22" s="3">
+        <f>H21*8</f>
+        <v>128000000000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>64000000000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>64000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" s="7" customFormat="1">
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <f>E1/G22</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="P23" s="2">
+        <v>175</v>
+      </c>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3">
+        <f>G23*G16</f>
+        <v>13958.333333333334</v>
+      </c>
+      <c r="O24" s="6">
+        <f>G24/P23</f>
+        <v>79.761904761904759</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="O25">
+        <v>64</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="7">
+        <f>64*G16/P23</f>
+        <v>24.502857142857142</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E22/E8</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F27" s="4">
+        <f>F22/F8</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <f>G22/G8</f>
+        <v>1.1602722772277227E-4</v>
+      </c>
+      <c r="H27" s="4">
+        <f>H22/H8</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <f>I22/I8</f>
+        <v>2.4615384615384616E-3</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="34">
+        <f>O25*G9/I13</f>
+        <v>13.627733333333333</v>
+      </c>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="4">
+        <f>R22/H8</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="E30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" ht="30">
+      <c r="D31" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="18">
+        <f>1/E27</f>
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="18">
+        <f>1/F27</f>
+        <v>32</v>
+      </c>
+      <c r="G31" s="18">
+        <f>1/G27</f>
+        <v>8618.6666666666679</v>
+      </c>
+      <c r="H31" s="18">
+        <f>1/H27</f>
+        <v>45</v>
+      </c>
+      <c r="I31" s="18">
+        <f>1/I27</f>
+        <v>406.25</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="E32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="E33" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="9">
+        <f>$I$22/I22*I9</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="21">
+        <f>$I$22/E22*E9</f>
+        <v>40</v>
+      </c>
+      <c r="F34" s="21">
+        <f>$I$22/F22*F9</f>
+        <v>88</v>
+      </c>
+      <c r="G34" s="21">
+        <f>$I$22/G22*G9</f>
+        <v>3548.8888888888891</v>
+      </c>
+      <c r="H34" s="21">
+        <f>$I$22/H22*H9</f>
+        <v>125</v>
+      </c>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="22">
+        <f>E34/$K$33</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F35" s="22">
+        <f>F34/$K$33</f>
+        <v>1.1733333333333333</v>
+      </c>
+      <c r="G35" s="22">
+        <f>G34/$K$33</f>
+        <v>47.318518518518523</v>
+      </c>
+      <c r="H35" s="22">
+        <f>H34/$K$33</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="21">
+        <f>$I$8/E8*E9</f>
+        <v>3611.1111111111109</v>
+      </c>
+      <c r="F36" s="21">
+        <f>$I$8/F8*F9</f>
+        <v>1117.1875</v>
+      </c>
+      <c r="G36" s="21">
+        <f>$I$8/G8*G9</f>
+        <v>167.28064408003303</v>
+      </c>
+      <c r="H36" s="21">
+        <f>$I$8/H8*H9</f>
+        <v>1128.4722222222224</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="22">
+        <f>E36/$K$33</f>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="F37" s="22">
+        <f>F36/$K$33</f>
         <v>14.895833333333334</v>
       </c>
-    </row>
-    <row r="11" spans="4:14">
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>250</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F11/F6</f>
-        <v>22.727272727272727</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="4:14">
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="G37" s="22">
+        <f>G36/$K$33</f>
+        <v>2.2304085877337738</v>
+      </c>
+      <c r="H37" s="22">
+        <f>H36/$K$33</f>
+        <v>15.046296296296299</v>
+      </c>
+      <c r="I37" s="3">
+        <f>I8</f>
+        <v>26000000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="21">
+        <f>K21*E16</f>
         <v>300</v>
       </c>
-      <c r="F13" s="2">
-        <v>99</v>
-      </c>
-      <c r="G13" s="9">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2">
-        <v>350</v>
-      </c>
-      <c r="J13" s="17">
-        <f>$H$13/E13</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="K13" s="17">
-        <f>$H$13/F13</f>
-        <v>3.5353535353535355</v>
-      </c>
-      <c r="L13" s="17">
-        <f>$H$13/G13</f>
-        <v>5.2238805970149258</v>
-      </c>
-    </row>
-    <row r="14" spans="4:14">
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <f>F15*1000/F14</f>
-        <v>304.87804878048786</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="4:15">
-      <c r="J17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15">
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3">
-        <v>8000000000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1000000000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>36000000</v>
-      </c>
-      <c r="H18" s="3">
-        <f>H19/8</f>
-        <v>8000000000</v>
-      </c>
-      <c r="J18" s="17">
-        <f>$H$18/E18</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
-        <f>$H$18/F18</f>
-        <v>8</v>
-      </c>
-      <c r="L18" s="17">
-        <f>$H$18/G18</f>
-        <v>222.22222222222223</v>
-      </c>
-      <c r="N18" s="7">
-        <f>$H$19/G18</f>
-        <v>1777.7777777777778</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15">
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="3">
-        <f>E18*8</f>
-        <v>64000000000</v>
-      </c>
-      <c r="F19" s="3">
-        <f>F18*8</f>
-        <v>8000000000</v>
-      </c>
-      <c r="G19" s="3">
-        <f>G18*8</f>
-        <v>288000000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>64000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" s="7" customFormat="1">
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9">
-        <f>I1/G19</f>
-        <v>208.33333333333334</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="O20" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15">
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3">
-        <f>G20*G13</f>
-        <v>13958.333333333334</v>
-      </c>
-      <c r="N21" s="6">
-        <f>G21/O20</f>
-        <v>79.761904761904759</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15">
-      <c r="N22">
-        <v>64</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15">
-      <c r="N23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="7">
-        <f>64*G13/O20</f>
-        <v>24.502857142857142</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15">
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="3">
-        <f>E19/E5</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F24" s="3">
-        <f>F19/F5</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="G24" s="3">
-        <f>G19/G5</f>
-        <v>1.1602722772277227E-4</v>
-      </c>
-      <c r="H24" s="3">
-        <f>H19/H5</f>
-        <v>2.4615384615384616E-3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="7">
-        <f>N22*G6/H10</f>
-        <v>13.627733333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15">
-      <c r="E27" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" ht="30">
-      <c r="D28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="20">
-        <f>1/E24</f>
-        <v>4.5</v>
-      </c>
-      <c r="F28" s="20">
-        <f>1/F24</f>
-        <v>32</v>
-      </c>
-      <c r="G28" s="20">
-        <f>1/G24</f>
-        <v>8618.6666666666679</v>
-      </c>
-      <c r="H28" s="20">
-        <f>1/H24</f>
-        <v>406.25</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15">
-      <c r="E29" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15">
-      <c r="E30" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="9">
-        <f>$H$19/H19*H6</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15">
-      <c r="D31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="23">
-        <f>$H$19/E19*E6</f>
-        <v>40</v>
-      </c>
-      <c r="F31" s="23">
-        <f>$H$19/F19*F6</f>
-        <v>88</v>
-      </c>
-      <c r="G31" s="23">
-        <f>$H$19/G19*G6</f>
-        <v>3548.8888888888891</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="4:15">
-      <c r="D32" s="22" t="s">
+      <c r="F38" s="21">
+        <f>L21*F16</f>
+        <v>792</v>
+      </c>
+      <c r="G38" s="21">
+        <f>M21*G16</f>
+        <v>14888.888888888889</v>
+      </c>
+      <c r="H38" s="21">
+        <f>O21*H16</f>
+        <v>997333.33333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="D39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="24">
-        <f>E31/$J$30</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="F32" s="24">
-        <f>F31/$J$30</f>
-        <v>1.1733333333333333</v>
-      </c>
-      <c r="G32" s="24">
-        <f>G31/$J$30</f>
-        <v>47.318518518518523</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="23">
-        <f>$H$5/E5*E6</f>
-        <v>3611.1111111111109</v>
-      </c>
-      <c r="F33" s="23">
-        <f>$H$5/F5*F6</f>
-        <v>1117.1875</v>
-      </c>
-      <c r="G33" s="23">
-        <f>$H$5/G5*G6</f>
-        <v>167.28064408003303</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8">
-      <c r="D34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="24">
-        <f>E33/$J$30</f>
-        <v>48.148148148148145</v>
-      </c>
-      <c r="F34" s="24">
-        <f>F33/$J$30</f>
-        <v>14.895833333333334</v>
-      </c>
-      <c r="G34" s="24">
-        <f>G33/$J$30</f>
-        <v>2.2304085877337738</v>
-      </c>
-      <c r="H34" s="3">
-        <f>H5</f>
-        <v>26000000000000</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8">
-      <c r="D35" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="23">
-        <f>J18*E13</f>
-        <v>300</v>
-      </c>
-      <c r="F35" s="23">
-        <f>K18*F13</f>
-        <v>792</v>
-      </c>
-      <c r="G35" s="23">
-        <f>L18*G13</f>
-        <v>14888.888888888889</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8">
-      <c r="D36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="24">
-        <f>E35/$H$13</f>
+      <c r="E39" s="22">
+        <f>E38/$I$16</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="F36" s="24">
-        <f>F35/$H$13</f>
+      <c r="F39" s="22">
+        <f>F38/$I$16</f>
         <v>2.2628571428571429</v>
       </c>
-      <c r="G36" s="24">
-        <f>G35/$H$13</f>
+      <c r="G39" s="22">
+        <f>G38/$I$16</f>
         <v>42.539682539682538</v>
+      </c>
+      <c r="H39" s="22">
+        <f>H38/$I$16</f>
+        <v>2849.5238095238096</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K19:M19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>TPU</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>Mb</t>
-  </si>
-  <si>
-    <t>Number of devices</t>
-  </si>
-  <si>
-    <t>Area required</t>
   </si>
   <si>
     <t>node system</t>
@@ -146,6 +140,22 @@
   </si>
   <si>
     <t>GPU</t>
+  </si>
+  <si>
+    <t>Sampling time</t>
+  </si>
+  <si>
+    <t>Bandwidth at capacity</t>
+  </si>
+  <si>
+    <t>Number of devices to meet capacity</t>
+  </si>
+  <si>
+    <t>Area required to meet capacity</t>
+  </si>
+  <si>
+    <t>Bandwidth/Capacity
+(Goldilocks ratio)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -301,8 +311,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,8 +411,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -479,12 +536,6 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,8 +543,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +610,25 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -582,6 +673,25 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -911,16 +1021,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:R39"/>
+  <dimension ref="D1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -943,13 +1053,19 @@
       <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="4:18">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.6E-2</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="K3" s="13"/>
@@ -975,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -998,7 +1114,7 @@
     </row>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>36000000000</v>
@@ -1010,28 +1126,28 @@
         <f>4096*606000000/8</f>
         <v>310272000000</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>720000000000</v>
       </c>
       <c r="I7" s="3">
         <f>I8/8</f>
-        <v>3250000000000</v>
+        <v>8192000000000</v>
       </c>
       <c r="K7" s="14">
         <f>$I$7/E7</f>
-        <v>90.277777777777771</v>
+        <v>227.55555555555554</v>
       </c>
       <c r="L7" s="14">
         <f>$I$7/F7</f>
-        <v>101.5625</v>
+        <v>256</v>
       </c>
       <c r="M7" s="14">
         <f>$I$7/G7</f>
-        <v>10.474680280528053</v>
+        <v>26.402640264026402</v>
       </c>
       <c r="O7" s="12">
         <f>M7*G9/I13</f>
-        <v>2.2304085877337738</v>
+        <v>5.6220022002200221</v>
       </c>
     </row>
     <row r="8" spans="4:18">
@@ -1055,7 +1171,8 @@
         <v>5760000000000</v>
       </c>
       <c r="I8" s="3">
-        <v>26000000000000</v>
+        <f>2048*I10*64</f>
+        <v>65536000000000</v>
       </c>
     </row>
     <row r="9" spans="4:18" s="12" customFormat="1">
@@ -1071,7 +1188,7 @@
       <c r="G9" s="4">
         <v>15.97</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="33">
         <v>250</v>
       </c>
       <c r="I9" s="4">
@@ -1091,7 +1208,7 @@
       <c r="G10" s="3">
         <v>606000000</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <v>1300000000</v>
       </c>
       <c r="I10" s="3">
@@ -1152,11 +1269,11 @@
       <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="K14" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="4:18">
       <c r="D15" s="1" t="s">
@@ -1232,11 +1349,11 @@
         <f>F18*1000/F17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="K19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="K19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
     </row>
     <row r="20" spans="4:18">
       <c r="K20" s="2" t="s">
@@ -1286,7 +1403,7 @@
         <f>$I$22/G21</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="R21" s="33">
+      <c r="R21" s="31">
         <v>16000000000</v>
       </c>
     </row>
@@ -1319,16 +1436,28 @@
     </row>
     <row r="23" spans="4:18" s="7" customFormat="1">
       <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E23" s="9">
+        <f>CEILING($E$1/E22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <f>CEILING($E$1/F22,1)</f>
+        <v>8</v>
+      </c>
       <c r="G23" s="9">
-        <f>E1/G22</f>
-        <v>208.33333333333334</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+        <f>CEILING($E$1/G22,1)</f>
+        <v>209</v>
+      </c>
+      <c r="H23" s="9">
+        <f>CEILING($E$1/H22,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <f>CEILING($E$1/I22,1)</f>
+        <v>1</v>
+      </c>
       <c r="P23" s="2">
         <v>175</v>
       </c>
@@ -1336,15 +1465,31 @@
     </row>
     <row r="24" spans="4:18">
       <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="3">
+        <v>43</v>
+      </c>
+      <c r="E24" s="9">
+        <f>E23*E16</f>
+        <v>300</v>
+      </c>
+      <c r="F24" s="9">
+        <f>F23*F16</f>
+        <v>792</v>
+      </c>
+      <c r="G24" s="9">
         <f>G23*G16</f>
-        <v>13958.333333333334</v>
+        <v>14003</v>
+      </c>
+      <c r="H24" s="9">
+        <f>H23*H16</f>
+        <v>561</v>
+      </c>
+      <c r="I24" s="9">
+        <f>I23*I16</f>
+        <v>350</v>
       </c>
       <c r="O24" s="6">
         <f>G24/P23</f>
-        <v>79.761904761904759</v>
+        <v>80.017142857142858</v>
       </c>
     </row>
     <row r="25" spans="4:18">
@@ -1352,7 +1497,7 @@
         <v>64</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="4:18">
@@ -1366,7 +1511,7 @@
     </row>
     <row r="27" spans="4:18">
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4">
         <f>E22/E8</f>
@@ -1386,20 +1531,20 @@
       </c>
       <c r="I27" s="4">
         <f>I22/I8</f>
-        <v>2.4615384615384616E-3</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34" t="s">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="32">
         <f>O25*G9/I13</f>
         <v>13.627733333333333</v>
       </c>
-      <c r="Q27" s="34"/>
+      <c r="Q27" s="32"/>
       <c r="R27" s="4">
         <f>R22/H8</f>
         <v>1.1111111111111112E-2</v>
@@ -1410,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="4:18" ht="30">
       <c r="D31" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="18">
         <f>1/E27</f>
@@ -1444,140 +1589,134 @@
       </c>
       <c r="I31" s="18">
         <f>1/I27</f>
-        <v>406.25</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="4:18">
-      <c r="E32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11">
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="4:13">
       <c r="E33" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>41</v>
+      <c r="H33" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K33" s="9">
         <f>$I$22/I22*I9</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="4:11">
+      <c r="M33">
+        <f>65/26</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13">
       <c r="D34" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" s="21">
-        <f>$I$22/E22*E9</f>
-        <v>40</v>
+        <f>$E$1/E22*E9</f>
+        <v>37.5</v>
       </c>
       <c r="F34" s="21">
-        <f>$I$22/F22*F9</f>
-        <v>88</v>
+        <f>$E$1/F22*F9</f>
+        <v>82.5</v>
       </c>
       <c r="G34" s="21">
-        <f>$I$22/G22*G9</f>
-        <v>3548.8888888888891</v>
+        <f>$E$1/G22*G9</f>
+        <v>3327.0833333333335</v>
       </c>
       <c r="H34" s="21">
-        <f>$I$22/H22*H9</f>
-        <v>125</v>
+        <f>$E$1/H22*H9</f>
+        <v>117.1875</v>
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:13">
       <c r="D35" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E35" s="22">
-        <f>E34/$K$33</f>
-        <v>0.53333333333333333</v>
+        <f>E34/$I$13</f>
+        <v>0.5</v>
       </c>
       <c r="F35" s="22">
-        <f>F34/$K$33</f>
-        <v>1.1733333333333333</v>
+        <f>F34/$I$13</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G35" s="22">
-        <f>G34/$K$33</f>
-        <v>47.318518518518523</v>
+        <f>G34/$I$13</f>
+        <v>44.361111111111114</v>
       </c>
       <c r="H35" s="22">
-        <f>H34/$K$33</f>
-        <v>1.6666666666666667</v>
+        <f>H34/$I$13</f>
+        <v>1.5625</v>
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:13">
       <c r="D36" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="21">
+        <f>$E$2/E8*E9</f>
+        <v>3611.1111111111109</v>
+      </c>
+      <c r="F36" s="21">
+        <f>$E$2/F8*F9</f>
+        <v>1117.1875</v>
+      </c>
+      <c r="G36" s="21">
+        <f>$E$2/G8*G9</f>
+        <v>167.28064408003303</v>
+      </c>
+      <c r="H36" s="21">
+        <f>$E$2/H8*H9</f>
+        <v>1128.4722222222224</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13">
+      <c r="D37" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="21">
-        <f>$I$8/E8*E9</f>
-        <v>3611.1111111111109</v>
-      </c>
-      <c r="F36" s="21">
-        <f>$I$8/F8*F9</f>
-        <v>1117.1875</v>
-      </c>
-      <c r="G36" s="21">
-        <f>$I$8/G8*G9</f>
-        <v>167.28064408003303</v>
-      </c>
-      <c r="H36" s="21">
-        <f>$I$8/H8*H9</f>
-        <v>1128.4722222222224</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11">
-      <c r="D37" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="E37" s="22">
-        <f>E36/$K$33</f>
+        <f>E36/$I$13</f>
         <v>48.148148148148145</v>
       </c>
       <c r="F37" s="22">
-        <f>F36/$K$33</f>
+        <f>F36/$I$13</f>
         <v>14.895833333333334</v>
       </c>
       <c r="G37" s="22">
-        <f>G36/$K$33</f>
+        <f>G36/$I$13</f>
         <v>2.2304085877337738</v>
       </c>
       <c r="H37" s="22">
-        <f>H36/$K$33</f>
+        <f>H36/$I$13</f>
         <v>15.046296296296299</v>
       </c>
       <c r="I37" s="3">
         <f>I8</f>
-        <v>26000000000000</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11">
+        <v>65536000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13">
       <c r="D38" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" s="21">
         <f>K21*E16</f>
@@ -1596,9 +1735,9 @@
         <v>997333.33333333337</v>
       </c>
     </row>
-    <row r="39" spans="4:11">
+    <row r="39" spans="4:13">
       <c r="D39" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" s="22">
         <f>E38/$I$16</f>
@@ -1615,6 +1754,70 @@
       <c r="H39" s="22">
         <f>H38/$I$16</f>
         <v>2849.5238095238096</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13">
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13">
+      <c r="E42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" ht="30">
+      <c r="D43" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="36">
+        <f>E23*E8/$E$2</f>
+        <v>1.1076923076923076E-2</v>
+      </c>
+      <c r="F43" s="36">
+        <f>F23*F8/$E$2</f>
+        <v>7.8769230769230772E-2</v>
+      </c>
+      <c r="G43" s="36">
+        <f>G23*G8/$E$2</f>
+        <v>19.952876307692307</v>
+      </c>
+      <c r="H43" s="36">
+        <f>H23*H8/$E$2</f>
+        <v>0.22153846153846155</v>
+      </c>
+      <c r="I43" s="36">
+        <f>I23*I8/$E$2</f>
+        <v>2.5206153846153847</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13">
+      <c r="E44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbbaker/Documents/workspace/github/ece-cortical-MainResearch/DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="13140" yWindow="2500" windowWidth="32040" windowHeight="21460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>TPU</t>
   </si>
@@ -156,12 +161,22 @@
   <si>
     <t>Bandwidth/Capacity
 (Goldilocks ratio)</t>
+  </si>
+  <si>
+    <t>BW Utilization
+(Goldilocks ratio)</t>
+  </si>
+  <si>
+    <t>Coldest</t>
+  </si>
+  <si>
+    <t>Colder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -543,26 +558,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="127">
@@ -696,6 +711,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1021,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:R44"/>
+  <dimension ref="D1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:I44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
@@ -1038,7 +1061,7 @@
     <col min="18" max="18" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18">
+    <row r="1" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1046,20 +1069,20 @@
         <v>60000000000</v>
       </c>
     </row>
-    <row r="2" spans="4:18">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="4:18">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1072,21 +1095,21 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1173,7 @@
         <v>5.6220022002200221</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1175,7 +1198,7 @@
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="9" spans="4:18" s="12" customFormat="1">
+    <row r="9" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1238,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:18" s="7" customFormat="1">
+    <row r="12" spans="4:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1266,7 @@
       <c r="I12" s="9"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1262,20 +1285,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="4:18">
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1348,7 @@
         <v>5.2238805970149258</v>
       </c>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,7 +1356,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1364,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1349,13 +1372,13 @@
         <f>F18*1000/F17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="4:18">
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1407,7 +1430,7 @@
         <v>16000000000</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +1457,7 @@
         <v>64000000000</v>
       </c>
     </row>
-    <row r="23" spans="4:18" s="7" customFormat="1">
+    <row r="23" spans="4:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
@@ -1463,7 +1486,7 @@
       </c>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="4:18">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1515,7 @@
         <v>80.017142857142858</v>
       </c>
     </row>
-    <row r="25" spans="4:18">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
       <c r="O25">
         <v>64</v>
       </c>
@@ -1500,7 +1523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="4:18">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1532,7 @@
         <v>24.502857142857142</v>
       </c>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1573,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E30" s="16" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="4:18" ht="30">
+    <row r="31" spans="4:18" ht="32" x14ac:dyDescent="0.2">
       <c r="D31" s="25" t="s">
         <v>37</v>
       </c>
@@ -1592,14 +1615,14 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="4:18">
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="4:13">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E33" s="26" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1632,7 @@
       <c r="G33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="35" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -1624,7 +1647,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="4:13">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D34" s="19" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1669,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="4:13">
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D35" s="20" t="s">
         <v>29</v>
       </c>
@@ -1668,7 +1691,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D36" s="23" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>1128.4722222222224</v>
       </c>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D37" s="24" t="s">
         <v>29</v>
       </c>
@@ -1714,7 +1737,7 @@
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:13">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D38" s="23" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1758,7 @@
         <v>997333.33333333337</v>
       </c>
     </row>
-    <row r="39" spans="4:13">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D39" s="24" t="s">
         <v>29</v>
       </c>
@@ -1756,12 +1779,12 @@
         <v>2849.5238095238096</v>
       </c>
     </row>
-    <row r="40" spans="4:13">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="4:13">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E42" s="16" t="s">
         <v>0</v>
       </c>
@@ -1778,32 +1801,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="30">
-      <c r="D43" s="40" t="s">
+    <row r="43" spans="4:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="D43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="34">
         <f>E23*E8/$E$2</f>
         <v>1.1076923076923076E-2</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="34">
         <f>F23*F8/$E$2</f>
         <v>7.8769230769230772E-2</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="34">
         <f>G23*G8/$E$2</f>
         <v>19.952876307692307</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="34">
         <f>H23*H8/$E$2</f>
         <v>0.22153846153846155</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="34">
         <f>I23*I8/$E$2</f>
         <v>2.5206153846153847</v>
       </c>
     </row>
-    <row r="44" spans="4:13">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E44" s="29" t="s">
         <v>31</v>
       </c>
@@ -1817,6 +1840,65 @@
         <v>31</v>
       </c>
       <c r="I44" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="D48" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="34">
+        <f>1/E43</f>
+        <v>90.277777777777786</v>
+      </c>
+      <c r="F48" s="34">
+        <f>1/F43</f>
+        <v>12.6953125</v>
+      </c>
+      <c r="G48" s="34">
+        <f>1/G43</f>
+        <v>5.0118087466641405E-2</v>
+      </c>
+      <c r="H48" s="34">
+        <f>1/H43</f>
+        <v>4.5138888888888884</v>
+      </c>
+      <c r="I48" s="34">
+        <f>1/I43</f>
+        <v>0.396728515625</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E49" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="28" t="s">
         <v>32</v>
       </c>
     </row>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbbaker/Documents/workspace/github/ece-cortical-MainResearch/DOC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="13140" yWindow="2500" windowWidth="32040" windowHeight="21460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -176,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -231,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -316,17 +311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -465,7 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -536,12 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,13 +539,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,10 +1022,10 @@
   <dimension ref="D1:R49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:I49"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
@@ -1061,7 +1036,7 @@
     <col min="18" max="18" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:18">
       <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1069,20 +1044,20 @@
         <v>60000000000</v>
       </c>
     </row>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:18">
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="4:18">
       <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1095,21 +1070,21 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:18">
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:18">
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:18">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1124,7 @@
         <f>4096*606000000/8</f>
         <v>310272000000</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>720000000000</v>
       </c>
       <c r="I7" s="3">
@@ -1173,7 +1148,7 @@
         <v>5.6220022002200221</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:18">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1173,7 @@
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="9" spans="4:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:18" s="12" customFormat="1">
       <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1211,14 +1186,14 @@
       <c r="G9" s="4">
         <v>15.97</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>250</v>
       </c>
       <c r="I9" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:18">
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1231,14 +1206,14 @@
       <c r="G10" s="3">
         <v>606000000</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="29">
         <v>1300000000</v>
       </c>
       <c r="I10" s="3">
         <v>500000000</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:18">
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:18" s="7" customFormat="1">
       <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1241,7 @@
       <c r="I12" s="9"/>
       <c r="R12" s="14"/>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:18">
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,20 +1260,20 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:18">
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="4:18">
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:18">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1323,7 @@
         <v>5.2238805970149258</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:18">
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1331,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:18">
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1339,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:18">
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,13 +1347,13 @@
         <f>F18*1000/F17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="4:18">
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:18">
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1426,11 +1401,11 @@
         <f>$I$22/G21</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="29">
         <v>16000000000</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:18">
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1432,7 @@
         <v>64000000000</v>
       </c>
     </row>
-    <row r="23" spans="4:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:18" s="7" customFormat="1">
       <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
@@ -1486,7 +1461,7 @@
       </c>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:18">
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1515,7 +1490,7 @@
         <v>80.017142857142858</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:18">
       <c r="O25">
         <v>64</v>
       </c>
@@ -1523,7 +1498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:18">
       <c r="O26" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1507,7 @@
         <v>24.502857142857142</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:18">
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1556,24 +1531,24 @@
         <f>I22/I8</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32" t="s">
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="30">
         <f>O25*G9/I13</f>
         <v>13.627733333333333</v>
       </c>
-      <c r="Q27" s="32"/>
+      <c r="Q27" s="30"/>
       <c r="R27" s="4">
         <f>R22/H8</f>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:18">
       <c r="E30" s="16" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="4:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:18" ht="32">
       <c r="D31" s="25" t="s">
         <v>37</v>
       </c>
@@ -1615,24 +1590,24 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E33" s="26" t="s">
+    <row r="32" spans="4:18">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="4:13">
+      <c r="E33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="16" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -1647,7 +1622,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:13">
       <c r="D34" s="19" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1644,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:13">
       <c r="D35" s="20" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1666,7 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:13">
       <c r="D36" s="23" t="s">
         <v>27</v>
       </c>
@@ -1712,7 +1687,7 @@
         <v>1128.4722222222224</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:13">
       <c r="D37" s="24" t="s">
         <v>29</v>
       </c>
@@ -1737,7 +1712,7 @@
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:13">
       <c r="D38" s="23" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1733,7 @@
         <v>997333.33333333337</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:13">
       <c r="D39" s="24" t="s">
         <v>29</v>
       </c>
@@ -1779,12 +1754,12 @@
         <v>2849.5238095238096</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:13">
       <c r="D40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:13">
       <c r="E42" s="16" t="s">
         <v>0</v>
       </c>
@@ -1801,49 +1776,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="D43" s="38" t="s">
+    <row r="43" spans="4:13" ht="32">
+      <c r="D43" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="32">
         <f>E23*E8/$E$2</f>
         <v>1.1076923076923076E-2</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="32">
         <f>F23*F8/$E$2</f>
         <v>7.8769230769230772E-2</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="32">
         <f>G23*G8/$E$2</f>
         <v>19.952876307692307</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="32">
         <f>H23*H8/$E$2</f>
         <v>0.22153846153846155</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="32">
         <f>I23*I8/$E$2</f>
         <v>2.5206153846153847</v>
       </c>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E44" s="29" t="s">
+    <row r="44" spans="4:13">
+      <c r="E44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:13">
       <c r="E47" s="16" t="s">
         <v>0</v>
       </c>
@@ -1860,45 +1835,45 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="D48" s="38" t="s">
+    <row r="48" spans="4:13" ht="32">
+      <c r="D48" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="32">
         <f>1/E43</f>
         <v>90.277777777777786</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="32">
         <f>1/F43</f>
         <v>12.6953125</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="32">
         <f>1/G43</f>
         <v>5.0118087466641405E-2</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="32">
         <f>1/H43</f>
         <v>4.5138888888888884</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="32">
         <f>1/I43</f>
         <v>0.396728515625</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E49" s="29" t="s">
+    <row r="49" spans="5:9">
+      <c r="E49" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="26" t="s">
         <v>32</v>
       </c>
     </row>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -158,14 +158,14 @@
 (Goldilocks ratio)</t>
   </si>
   <si>
-    <t>BW Utilization
+    <t>Coldest</t>
+  </si>
+  <si>
+    <t>Colder</t>
+  </si>
+  <si>
+    <t>BW Utilization at capacity
 (Goldilocks ratio)</t>
-  </si>
-  <si>
-    <t>Coldest</t>
-  </si>
-  <si>
-    <t>Colder</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,8 +448,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -554,8 +564,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -619,6 +632,11 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -682,6 +700,11 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1022,13 +1045,13 @@
   <dimension ref="D1:R49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D33" sqref="D33:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1565,7 +1588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="4:18" ht="32">
+    <row r="31" spans="4:18" ht="30">
       <c r="D31" s="25" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +1799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="32">
+    <row r="43" spans="4:13" ht="30">
       <c r="D43" s="35" t="s">
         <v>44</v>
       </c>
@@ -1835,9 +1858,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="32">
-      <c r="D48" s="35" t="s">
-        <v>45</v>
+    <row r="48" spans="4:13" ht="30">
+      <c r="D48" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="E48" s="32">
         <f>1/E43</f>
@@ -1862,10 +1885,10 @@
     </row>
     <row r="49" spans="5:9">
       <c r="E49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>30</v>
@@ -1885,6 +1908,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="E36:H36" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>TPU</t>
   </si>
@@ -33,9 +37,6 @@
     <t>freq</t>
   </si>
   <si>
-    <t># devices required</t>
-  </si>
-  <si>
     <t>power</t>
   </si>
   <si>
@@ -118,9 +119,6 @@
   </si>
   <si>
     <t>Just right</t>
-  </si>
-  <si>
-    <t>Area at capacity</t>
   </si>
   <si>
     <t>DRAM Bandwidth Ratio</t>
@@ -166,6 +164,12 @@
   <si>
     <t>BW Utilization at capacity
 (Goldilocks ratio)</t>
+  </si>
+  <si>
+    <t>Area with bandwidth and capacity</t>
+  </si>
+  <si>
+    <t>Power with bandwidth and capacity</t>
   </si>
 </sst>
 </file>
@@ -175,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +203,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,8 +336,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -458,8 +486,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -561,14 +605,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -637,6 +705,14 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -705,6 +781,14 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,6 +802,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AAA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="6637"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,16 +1152,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:R49"/>
+  <dimension ref="D1:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:H39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1061,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="4:18">
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3">
         <v>60000000000</v>
@@ -1069,20 +1179,20 @@
     </row>
     <row r="2" spans="4:18">
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="K2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="4:18">
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3">
         <v>1.6E-2</v>
@@ -1112,30 +1222,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:18">
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>36000000000</v>
@@ -1238,15 +1348,15 @@
     </row>
     <row r="11" spans="4:18">
       <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="4:18" s="7" customFormat="1">
-      <c r="D12" s="8" t="s">
-        <v>4</v>
+      <c r="D12" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="9">
         <f>$E$2/E8</f>
@@ -1260,13 +1370,16 @@
         <f>$E$2/G8</f>
         <v>10.474680280528053</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9">
+        <f>$E$2/H8</f>
+        <v>4.5138888888888893</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="4:18">
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
         <f>E12*E9</f>
@@ -1285,20 +1398,20 @@
     </row>
     <row r="14" spans="4:18">
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="K14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="K14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="4:18">
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4">
         <f>F14/F9</f>
@@ -1308,15 +1421,15 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="4:18">
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>300</v>
@@ -1348,7 +1461,7 @@
     </row>
     <row r="17" spans="4:18">
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2">
         <v>8.1999999999999993</v>
@@ -1356,7 +1469,7 @@
     </row>
     <row r="18" spans="4:18">
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>2.5</v>
@@ -1364,32 +1477,32 @@
     </row>
     <row r="19" spans="4:18">
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2">
         <f>F18*1000/F17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="K19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="4:18">
       <c r="K20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="4:18">
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3">
         <v>8000000000</v>
@@ -1430,7 +1543,7 @@
     </row>
     <row r="22" spans="4:18">
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3">
         <f>E21*8</f>
@@ -1457,7 +1570,7 @@
     </row>
     <row r="23" spans="4:18" s="7" customFormat="1">
       <c r="D23" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="9">
         <f>CEILING($E$1/E22,1)</f>
@@ -1486,7 +1599,7 @@
     </row>
     <row r="24" spans="4:18">
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="9">
         <f>E23*E16</f>
@@ -1518,12 +1631,12 @@
         <v>64</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:18">
       <c r="O26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P26" s="7">
         <f>64*G16/P23</f>
@@ -1532,7 +1645,7 @@
     </row>
     <row r="27" spans="4:18">
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="4">
         <f>E22/E8</f>
@@ -1559,7 +1672,7 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="30">
         <f>O25*G9/I13</f>
@@ -1576,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="4:18" ht="30">
       <c r="D31" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="18">
         <f>1/E27</f>
@@ -1620,37 +1733,37 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="4:13">
+    <row r="33" spans="4:18">
       <c r="E33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K33" s="9">
         <f>$I$22/I22*I9</f>
         <v>75</v>
       </c>
-      <c r="M33">
-        <f>65/26</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13">
+      <c r="M33" t="e">
+        <f>"Transfer to 6637 : "&amp;-([1]AAA!P128+[1]AAA!P150)+'[2]6637'!N1840&amp;"(Pets)+"&amp;'[2]6637'!P1840&amp;"(Car)"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18">
       <c r="D34" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="21">
-        <f>$E$1/E22*E9</f>
+        <f>($E$1/E22)*E9</f>
         <v>37.5</v>
       </c>
       <c r="F34" s="21">
@@ -1667,9 +1780,9 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="4:13">
+    <row r="35" spans="4:18">
       <c r="D35" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="22">
         <f>E34/$I$13</f>
@@ -1689,9 +1802,9 @@
       </c>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="4:13">
+    <row r="36" spans="4:18">
       <c r="D36" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="21">
         <f>$E$2/E8*E9</f>
@@ -1710,9 +1823,9 @@
         <v>1128.4722222222224</v>
       </c>
     </row>
-    <row r="37" spans="4:13">
+    <row r="37" spans="4:18">
       <c r="D37" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="22">
         <f>E36/$I$13</f>
@@ -1735,169 +1848,247 @@
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:13">
-      <c r="D38" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="21">
-        <f>K21*E16</f>
-        <v>300</v>
-      </c>
-      <c r="F38" s="21">
-        <f>L21*F16</f>
-        <v>792</v>
-      </c>
-      <c r="G38" s="21">
-        <f>M21*G16</f>
-        <v>14888.888888888889</v>
-      </c>
-      <c r="H38" s="21">
-        <f>O21*H16</f>
-        <v>997333.33333333337</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13">
-      <c r="D39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="22">
-        <f>E38/$I$16</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F39" s="22">
-        <f>F38/$I$16</f>
-        <v>2.2628571428571429</v>
-      </c>
-      <c r="G39" s="22">
-        <f>G38/$I$16</f>
-        <v>42.539682539682538</v>
-      </c>
-      <c r="H39" s="22">
-        <f>H38/$I$16</f>
-        <v>2849.5238095238096</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13">
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13">
-      <c r="E42" s="16" t="s">
+    <row r="38" spans="4:18">
+      <c r="D38" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="44">
+        <f>MAX(E34,E36)</f>
+        <v>3611.1111111111109</v>
+      </c>
+      <c r="F38" s="44">
+        <f>MAX(F34,F36)</f>
+        <v>1117.1875</v>
+      </c>
+      <c r="G38" s="44">
+        <f>MAX(G34,G36)</f>
+        <v>3327.0833333333335</v>
+      </c>
+      <c r="H38" s="44">
+        <f>MAX(H34,H36)</f>
+        <v>1128.4722222222224</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="R38" s="36"/>
+    </row>
+    <row r="39" spans="4:18">
+      <c r="D39" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="46">
+        <f>E38/$I$13</f>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="F39" s="46">
+        <f>F38/$I$13</f>
+        <v>14.895833333333334</v>
+      </c>
+      <c r="G39" s="46">
+        <f>G38/$I$13</f>
+        <v>44.361111111111114</v>
+      </c>
+      <c r="H39" s="46">
+        <f>H38/$I$13</f>
+        <v>15.046296296296299</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="R39" s="36"/>
+    </row>
+    <row r="40" spans="4:18">
+      <c r="D40" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="21">
+        <f>MAX(E23,E12)*E16</f>
+        <v>27083.333333333332</v>
+      </c>
+      <c r="F40" s="21">
+        <f>MAX(F23,F12)*F16</f>
+        <v>10054.6875</v>
+      </c>
+      <c r="G40" s="21">
+        <f>MAX(G23,G12)*G16</f>
+        <v>14003</v>
+      </c>
+      <c r="H40" s="21">
+        <f>MAX(H23,H12)*H16</f>
+        <v>2532.291666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18">
+      <c r="D41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="22">
+        <f>E40/$I$16</f>
+        <v>77.38095238095238</v>
+      </c>
+      <c r="F41" s="22">
+        <f>F40/$I$16</f>
+        <v>28.727678571428573</v>
+      </c>
+      <c r="G41" s="22">
+        <f>G40/$I$16</f>
+        <v>40.008571428571429</v>
+      </c>
+      <c r="H41" s="22">
+        <f>H40/$I$16</f>
+        <v>7.2351190476190483</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18">
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="R42" s="36"/>
+    </row>
+    <row r="43" spans="4:18">
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="R43" s="36"/>
+    </row>
+    <row r="44" spans="4:18">
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="R44" s="36"/>
+    </row>
+    <row r="45" spans="4:18">
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="R45" s="36"/>
+    </row>
+    <row r="46" spans="4:18">
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="E48" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" ht="30">
-      <c r="D43" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="F48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="30">
+      <c r="D49" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="32">
         <f>E23*E8/$E$2</f>
         <v>1.1076923076923076E-2</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F49" s="32">
         <f>F23*F8/$E$2</f>
         <v>7.8769230769230772E-2</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G49" s="32">
         <f>G23*G8/$E$2</f>
         <v>19.952876307692307</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H49" s="32">
         <f>H23*H8/$E$2</f>
         <v>0.22153846153846155</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I49" s="32">
         <f>I23*I8/$E$2</f>
         <v>2.5206153846153847</v>
       </c>
     </row>
-    <row r="44" spans="4:13">
-      <c r="E44" s="27" t="s">
+    <row r="50" spans="4:9">
+      <c r="E50" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="27" t="s">
+    </row>
+    <row r="53" spans="4:9">
+      <c r="E53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" ht="30">
+      <c r="D54" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="32">
+        <f>1/E49</f>
+        <v>90.277777777777786</v>
+      </c>
+      <c r="F54" s="32">
+        <f>1/F49</f>
+        <v>12.6953125</v>
+      </c>
+      <c r="G54" s="32">
+        <f>1/G49</f>
+        <v>5.0118087466641405E-2</v>
+      </c>
+      <c r="H54" s="32">
+        <f>1/H49</f>
+        <v>4.5138888888888884</v>
+      </c>
+      <c r="I54" s="32">
+        <f>1/I49</f>
+        <v>0.396728515625</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9">
+      <c r="E55" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13">
-      <c r="E47" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" ht="30">
-      <c r="D48" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="32">
-        <f>1/E43</f>
-        <v>90.277777777777786</v>
-      </c>
-      <c r="F48" s="32">
-        <f>1/F43</f>
-        <v>12.6953125</v>
-      </c>
-      <c r="G48" s="32">
-        <f>1/G43</f>
-        <v>5.0118087466641405E-2</v>
-      </c>
-      <c r="H48" s="32">
-        <f>1/H43</f>
-        <v>4.5138888888888884</v>
-      </c>
-      <c r="I48" s="32">
-        <f>1/I43</f>
-        <v>0.396728515625</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +2100,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="E36:H36" formula="1"/>
+    <ignoredError sqref="E36:H36 E38:H38" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="2500" windowWidth="32040" windowHeight="21460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lee Baker</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+16 vaults
+8 GBps per vault</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>TPU</t>
   </si>
@@ -170,16 +205,29 @@
   </si>
   <si>
     <t>Power with bandwidth and capacity</t>
+  </si>
+  <si>
+    <t>Neurocube/Tetris</t>
+  </si>
+  <si>
+    <t>binary16</t>
+  </si>
+  <si>
+    <t>NeuroCube</t>
+  </si>
+  <si>
+    <t>Not bad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +258,132 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +414,103 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -347,8 +614,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,8 +876,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -608,35 +1021,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="192">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -713,6 +1150,25 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -789,7 +1245,27 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="163"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1151,99 +1627,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:R55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="13"/>
+    <col min="5" max="7" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18">
+    <row r="1" spans="3:19">
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3">
         <v>60000000000</v>
       </c>
-    </row>
-    <row r="2" spans="4:18">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="3:19">
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3">
         <v>26000000000000</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="F2" s="3"/>
+      <c r="L2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="4:18">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="3:19">
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="13"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="4:18">
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="4:18">
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="4:18">
-      <c r="E6" s="2" t="s">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="3:19" s="53" customFormat="1" ht="30">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="4:18">
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="3:19">
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1251,37 +1736,41 @@
         <v>36000000000</v>
       </c>
       <c r="F7" s="3">
+        <f>16*8000000000</f>
+        <v>128000000000</v>
+      </c>
+      <c r="G7" s="3">
         <v>32000000000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <f>4096*606000000/8</f>
         <v>310272000000</v>
       </c>
-      <c r="H7" s="29">
+      <c r="I7" s="29">
         <v>720000000000</v>
       </c>
-      <c r="I7" s="3">
-        <f>I8/8</f>
+      <c r="J7" s="3">
+        <f>J8/8</f>
         <v>8192000000000</v>
       </c>
-      <c r="K7" s="14">
-        <f>$I$7/E7</f>
+      <c r="L7" s="14">
+        <f>$J$7/E7</f>
         <v>227.55555555555554</v>
       </c>
-      <c r="L7" s="14">
-        <f>$I$7/F7</f>
+      <c r="M7" s="14">
+        <f>$J$7/G7</f>
         <v>256</v>
       </c>
-      <c r="M7" s="14">
-        <f>$I$7/G7</f>
+      <c r="N7" s="14">
+        <f>$J$7/H7</f>
         <v>26.402640264026402</v>
       </c>
-      <c r="O7" s="12">
-        <f>M7*G9/I13</f>
+      <c r="P7" s="12">
+        <f>N7*H9/J13</f>
         <v>5.6220022002200221</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="3:19">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1291,22 +1780,26 @@
       </c>
       <c r="F8" s="2">
         <f>F7*8</f>
+        <v>1024000000000</v>
+      </c>
+      <c r="G8" s="2">
+        <f>G7*8</f>
         <v>256000000000</v>
       </c>
-      <c r="G8" s="3">
-        <f>G7*8</f>
+      <c r="H8" s="3">
+        <f>H7*8</f>
         <v>2482176000000</v>
       </c>
-      <c r="H8" s="2">
-        <f>H7*8</f>
+      <c r="I8" s="2">
+        <f>I7*8</f>
         <v>5760000000000</v>
       </c>
-      <c r="I8" s="3">
-        <f>2048*I10*64</f>
+      <c r="J8" s="3">
+        <f>2048*J10*64</f>
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="9" spans="4:18" s="12" customFormat="1">
+    <row r="9" spans="3:19" s="12" customFormat="1">
       <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
@@ -1314,19 +1807,22 @@
         <v>40</v>
       </c>
       <c r="F9" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="G9" s="4">
         <v>11</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>15.97</v>
       </c>
-      <c r="H9" s="31">
+      <c r="I9" s="31">
         <v>250</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="3:19">
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1334,28 +1830,34 @@
         <v>700000000</v>
       </c>
       <c r="F10" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1000000000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>606000000</v>
       </c>
-      <c r="H10" s="29">
+      <c r="I10" s="29">
         <v>1300000000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500000000</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="3:19">
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:18" s="7" customFormat="1">
-      <c r="D12" s="42" t="s">
+    <row r="12" spans="3:19" s="7" customFormat="1">
+      <c r="D12" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="9">
@@ -1364,70 +1866,79 @@
       </c>
       <c r="F12" s="9">
         <f>$E$2/F8</f>
-        <v>101.5625</v>
+        <v>25.390625</v>
       </c>
       <c r="G12" s="9">
         <f>$E$2/G8</f>
-        <v>10.474680280528053</v>
+        <v>101.5625</v>
       </c>
       <c r="H12" s="9">
         <f>$E$2/H8</f>
+        <v>10.474680280528053</v>
+      </c>
+      <c r="I12" s="9">
+        <f>$E$2/I8</f>
         <v>4.5138888888888893</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="4:18">
+      <c r="J12" s="9"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="3:19">
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="47">
         <f>E12*E9</f>
         <v>3611.1111111111109</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="47">
         <f>F12*F9</f>
+        <v>176.2109375</v>
+      </c>
+      <c r="G13" s="47">
+        <f>G12*G9</f>
         <v>1117.1875</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47">
         <v>250</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="3:19">
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>250</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="L14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="4:18">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="3:19">
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4">
-        <f>F14/F9</f>
+      <c r="G15" s="4">
+        <f>G14/G9</f>
         <v>22.727272727272727</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="3:19">
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1435,72 +1946,75 @@
         <v>300</v>
       </c>
       <c r="F16" s="2">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2">
         <v>99</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>67</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>561</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>350</v>
       </c>
-      <c r="K16" s="15">
-        <f>$I$16/E16</f>
+      <c r="L16" s="15">
+        <f>$J$16/E16</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="L16" s="15">
-        <f>$I$16/F16</f>
+      <c r="M16" s="15">
+        <f>$J$16/G16</f>
         <v>3.5353535353535355</v>
       </c>
-      <c r="M16" s="15">
-        <f>$I$16/G16</f>
+      <c r="N16" s="15">
+        <f>$J$16/H16</f>
         <v>5.2238805970149258</v>
       </c>
     </row>
-    <row r="17" spans="4:18">
+    <row r="17" spans="4:19">
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="4:18">
+    <row r="18" spans="4:19">
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="4:18">
+    <row r="19" spans="4:19">
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2">
-        <f>F18*1000/F17</f>
+      <c r="G19" s="2">
+        <f>G18*1000/G17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="L19" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-    </row>
-    <row r="20" spans="4:18">
-      <c r="K20" s="2" t="s">
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+    </row>
+    <row r="20" spans="4:19">
+      <c r="L20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="4:18">
+    <row r="21" spans="4:19">
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1511,37 +2025,40 @@
         <v>1000000000</v>
       </c>
       <c r="G21" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="H21" s="3">
         <v>36000000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <f>16000000000</f>
         <v>16000000000</v>
       </c>
-      <c r="I21" s="3">
-        <f>I22/8</f>
+      <c r="J21" s="3">
+        <f>J22/8</f>
         <v>8000000000</v>
       </c>
-      <c r="K21" s="15">
-        <f>$I$21/E21</f>
+      <c r="L21" s="15">
+        <f>$J$21/E21</f>
         <v>1</v>
       </c>
-      <c r="L21" s="15">
-        <f>$I$21/F21</f>
+      <c r="M21" s="15">
+        <f>$J$21/G21</f>
         <v>8</v>
       </c>
-      <c r="M21" s="15">
-        <f>$I$21/G21</f>
+      <c r="N21" s="15">
+        <f>$J$21/H21</f>
         <v>222.22222222222223</v>
       </c>
-      <c r="O21" s="7">
-        <f>$I$22/G21</f>
+      <c r="P21" s="7">
+        <f>$J$22/H21</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="R21" s="29">
+      <c r="S21" s="29">
         <v>16000000000</v>
       </c>
     </row>
-    <row r="22" spans="4:18">
+    <row r="22" spans="4:19">
       <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +2072,57 @@
       </c>
       <c r="G22" s="3">
         <f>G21*8</f>
-        <v>288000000</v>
+        <v>8000000000</v>
       </c>
       <c r="H22" s="3">
         <f>H21*8</f>
+        <v>288000000</v>
+      </c>
+      <c r="I22" s="3">
+        <f>I21*8</f>
         <v>128000000000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64000000000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>64000000000</v>
       </c>
     </row>
-    <row r="23" spans="4:18" s="7" customFormat="1">
+    <row r="23" spans="4:19" s="7" customFormat="1">
       <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="9">
-        <f>CEILING($E$1/E22,1)</f>
+        <f t="shared" ref="E23:J23" si="0">CEILING($E$1/E22,1)</f>
         <v>1</v>
       </c>
       <c r="F23" s="9">
-        <f>CEILING($E$1/F22,1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G23" s="9">
-        <f>CEILING($E$1/G22,1)</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="H23" s="9">
-        <f>CEILING($E$1/H22,1)</f>
+      <c r="I23" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I23" s="9">
-        <f>CEILING($E$1/I22,1)</f>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>175</v>
       </c>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="4:18">
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="4:19">
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1607,43 +2132,47 @@
       </c>
       <c r="F24" s="9">
         <f>F23*F16</f>
-        <v>792</v>
+        <v>544</v>
       </c>
       <c r="G24" s="9">
         <f>G23*G16</f>
-        <v>14003</v>
+        <v>792</v>
       </c>
       <c r="H24" s="9">
         <f>H23*H16</f>
-        <v>561</v>
+        <v>14003</v>
       </c>
       <c r="I24" s="9">
         <f>I23*I16</f>
+        <v>561</v>
+      </c>
+      <c r="J24" s="9">
+        <f>J23*J16</f>
         <v>350</v>
       </c>
-      <c r="O24" s="6">
-        <f>G24/P23</f>
+      <c r="P24" s="6">
+        <f>H24/Q23</f>
         <v>80.017142857142858</v>
       </c>
     </row>
-    <row r="25" spans="4:18">
-      <c r="O25">
+    <row r="25" spans="4:19">
+      <c r="P25">
         <v>64</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="Q25" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="4:18">
-      <c r="O26" t="s">
+    <row r="26" spans="4:19">
+      <c r="P26" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="7">
-        <f>64*G16/P23</f>
+      <c r="Q26" s="7">
+        <f>64*H16/Q23</f>
         <v>24.502857142857142</v>
       </c>
     </row>
-    <row r="27" spans="4:18">
+    <row r="27" spans="4:19">
       <c r="D27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1653,55 +2182,62 @@
       </c>
       <c r="F27" s="4">
         <f>F22/F8</f>
-        <v>3.125E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="G27" s="4">
         <f>G22/G8</f>
-        <v>1.1602722772277227E-4</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H27" s="4">
         <f>H22/H8</f>
-        <v>2.2222222222222223E-2</v>
+        <v>1.1602722772277227E-4</v>
       </c>
       <c r="I27" s="4">
         <f>I22/I8</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J27" s="54">
+        <f>J22/J8</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="30"/>
+      <c r="P27" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="30">
-        <f>O25*G9/I13</f>
+      <c r="Q27" s="30">
+        <f>P25*H9/J13</f>
         <v>13.627733333333333</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="4">
-        <f>R22/H8</f>
+      <c r="R27" s="30"/>
+      <c r="S27" s="4">
+        <f>S22/I8</f>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:18">
+    <row r="30" spans="4:19">
       <c r="E30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="H30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:18" ht="30">
+    <row r="31" spans="4:19" ht="30">
       <c r="D31" s="25" t="s">
         <v>35</v>
       </c>
@@ -1711,54 +2247,62 @@
       </c>
       <c r="F31" s="18">
         <f>1/F27</f>
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="G31" s="18">
         <f>1/G27</f>
-        <v>8618.6666666666679</v>
+        <v>32</v>
       </c>
       <c r="H31" s="18">
         <f>1/H27</f>
-        <v>45</v>
+        <v>8618.6666666666679</v>
       </c>
       <c r="I31" s="18">
         <f>1/I27</f>
+        <v>45</v>
+      </c>
+      <c r="J31" s="18">
+        <f>1/J27</f>
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="4:18">
+    <row r="32" spans="4:19">
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="4:18">
+      <c r="J32" s="33"/>
+    </row>
+    <row r="33" spans="4:19">
       <c r="E33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="H33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="9">
-        <f>$I$22/I22*I9</f>
+      <c r="L33" s="9">
+        <f>$J$22/J22*J9</f>
         <v>75</v>
       </c>
-      <c r="M33" t="e">
+      <c r="N33" t="e">
         <f>"Transfer to 6637 : "&amp;-([1]AAA!P128+[1]AAA!P150)+'[2]6637'!N1840&amp;"(Pets)+"&amp;'[2]6637'!P1840&amp;"(Car)"</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="4:18">
+    <row r="34" spans="4:19">
       <c r="D34" s="19" t="s">
         <v>25</v>
       </c>
@@ -1767,42 +2311,50 @@
         <v>37.5</v>
       </c>
       <c r="F34" s="21">
-        <f>$E$1/F22*F9</f>
-        <v>82.5</v>
+        <f>($E$1/F22)*F9</f>
+        <v>52.050000000000004</v>
       </c>
       <c r="G34" s="21">
         <f>$E$1/G22*G9</f>
-        <v>3327.0833333333335</v>
+        <v>82.5</v>
       </c>
       <c r="H34" s="21">
         <f>$E$1/H22*H9</f>
+        <v>3327.0833333333335</v>
+      </c>
+      <c r="I34" s="21">
+        <f>$E$1/I22*I9</f>
         <v>117.1875</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="4:18">
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="4:19">
       <c r="D35" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="22">
-        <f>E34/$I$13</f>
+        <f>E34/$J$13</f>
         <v>0.5</v>
       </c>
       <c r="F35" s="22">
-        <f>F34/$I$13</f>
+        <f>F34/$J$13</f>
+        <v>0.69400000000000006</v>
+      </c>
+      <c r="G35" s="22">
+        <f>G34/$J$13</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G35" s="22">
-        <f>G34/$I$13</f>
+      <c r="H35" s="22">
+        <f>H34/$J$13</f>
         <v>44.361111111111114</v>
       </c>
-      <c r="H35" s="22">
-        <f>H34/$I$13</f>
+      <c r="I35" s="22">
+        <f>I34/$J$13</f>
         <v>1.5625</v>
       </c>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="4:18">
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="4:19">
       <c r="D36" s="23" t="s">
         <v>26</v>
       </c>
@@ -1812,89 +2364,105 @@
       </c>
       <c r="F36" s="21">
         <f>$E$2/F8*F9</f>
-        <v>1117.1875</v>
+        <v>176.2109375</v>
       </c>
       <c r="G36" s="21">
         <f>$E$2/G8*G9</f>
-        <v>167.28064408003303</v>
+        <v>1117.1875</v>
       </c>
       <c r="H36" s="21">
         <f>$E$2/H8*H9</f>
+        <v>167.28064408003303</v>
+      </c>
+      <c r="I36" s="21">
+        <f>$E$2/I8*I9</f>
         <v>1128.4722222222224</v>
       </c>
     </row>
-    <row r="37" spans="4:18">
+    <row r="37" spans="4:19">
       <c r="D37" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="22">
-        <f>E36/$I$13</f>
+        <f>E36/$J$13</f>
         <v>48.148148148148145</v>
       </c>
       <c r="F37" s="22">
-        <f>F36/$I$13</f>
+        <f>F36/$J$13</f>
+        <v>2.3494791666666668</v>
+      </c>
+      <c r="G37" s="22">
+        <f>G36/$J$13</f>
         <v>14.895833333333334</v>
       </c>
-      <c r="G37" s="22">
-        <f>G36/$I$13</f>
+      <c r="H37" s="22">
+        <f>H36/$J$13</f>
         <v>2.2304085877337738</v>
       </c>
-      <c r="H37" s="22">
-        <f>H36/$I$13</f>
+      <c r="I37" s="22">
+        <f>I36/$J$13</f>
         <v>15.046296296296299</v>
       </c>
-      <c r="I37" s="3">
-        <f>I8</f>
+      <c r="J37" s="3">
+        <f>J8</f>
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:18">
-      <c r="D38" s="43" t="s">
+    <row r="38" spans="4:19">
+      <c r="D38" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="42">
         <f>MAX(E34,E36)</f>
         <v>3611.1111111111109</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="42">
         <f>MAX(F34,F36)</f>
+        <v>176.2109375</v>
+      </c>
+      <c r="G38" s="42">
+        <f>MAX(G34,G36)</f>
         <v>1117.1875</v>
       </c>
-      <c r="G38" s="44">
-        <f>MAX(G34,G36)</f>
+      <c r="H38" s="42">
+        <f>MAX(H34,H36)</f>
         <v>3327.0833333333335</v>
       </c>
-      <c r="H38" s="44">
-        <f>MAX(H34,H36)</f>
+      <c r="I38" s="42">
+        <f>MAX(I34,I36)</f>
         <v>1128.4722222222224</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" spans="4:18">
-      <c r="D39" s="45" t="s">
+      <c r="J38" s="3"/>
+      <c r="S38" s="36"/>
+    </row>
+    <row r="39" spans="4:19">
+      <c r="D39" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="46">
-        <f>E38/$I$13</f>
+      <c r="E39" s="44">
+        <f>E38/$J$13</f>
         <v>48.148148148148145</v>
       </c>
-      <c r="F39" s="46">
-        <f>F38/$I$13</f>
+      <c r="F39" s="44">
+        <f>F38/$J$13</f>
+        <v>2.3494791666666668</v>
+      </c>
+      <c r="G39" s="44">
+        <f>G38/$J$13</f>
         <v>14.895833333333334</v>
       </c>
-      <c r="G39" s="46">
-        <f>G38/$I$13</f>
+      <c r="H39" s="44">
+        <f>H38/$J$13</f>
         <v>44.361111111111114</v>
       </c>
-      <c r="H39" s="46">
-        <f>H38/$I$13</f>
+      <c r="I39" s="44">
+        <f>I38/$J$13</f>
         <v>15.046296296296299</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="R39" s="36"/>
-    </row>
-    <row r="40" spans="4:18">
+      <c r="J39" s="3"/>
+      <c r="S39" s="36"/>
+    </row>
+    <row r="40" spans="4:19">
       <c r="D40" s="23" t="s">
         <v>46</v>
       </c>
@@ -1904,93 +2472,108 @@
       </c>
       <c r="F40" s="21">
         <f>MAX(F23,F12)*F16</f>
-        <v>10054.6875</v>
+        <v>1726.5625</v>
       </c>
       <c r="G40" s="21">
         <f>MAX(G23,G12)*G16</f>
-        <v>14003</v>
+        <v>10054.6875</v>
       </c>
       <c r="H40" s="21">
         <f>MAX(H23,H12)*H16</f>
+        <v>14003</v>
+      </c>
+      <c r="I40" s="21">
+        <f>MAX(I23,I12)*I16</f>
         <v>2532.291666666667</v>
       </c>
     </row>
-    <row r="41" spans="4:18">
+    <row r="41" spans="4:19">
       <c r="D41" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="22">
-        <f>E40/$I$16</f>
+        <f>E40/$J$16</f>
         <v>77.38095238095238</v>
       </c>
       <c r="F41" s="22">
-        <f>F40/$I$16</f>
+        <f>F40/$J$16</f>
+        <v>4.9330357142857144</v>
+      </c>
+      <c r="G41" s="22">
+        <f>G40/$J$16</f>
         <v>28.727678571428573</v>
       </c>
-      <c r="G41" s="22">
-        <f>G40/$I$16</f>
+      <c r="H41" s="22">
+        <f>H40/$J$16</f>
         <v>40.008571428571429</v>
       </c>
-      <c r="H41" s="22">
-        <f>H40/$I$16</f>
+      <c r="I41" s="22">
+        <f>I40/$J$16</f>
         <v>7.2351190476190483</v>
       </c>
     </row>
-    <row r="42" spans="4:18">
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="R42" s="36"/>
-    </row>
-    <row r="43" spans="4:18">
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="R43" s="36"/>
-    </row>
-    <row r="44" spans="4:18">
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="R44" s="36"/>
-    </row>
-    <row r="45" spans="4:18">
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="R45" s="36"/>
-    </row>
-    <row r="46" spans="4:18">
+    <row r="42" spans="4:19">
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="S42" s="36"/>
+    </row>
+    <row r="43" spans="4:19">
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="S43" s="36"/>
+    </row>
+    <row r="44" spans="4:19">
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="S44" s="36"/>
+    </row>
+    <row r="45" spans="4:19">
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="S45" s="36"/>
+    </row>
+    <row r="46" spans="4:19">
       <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="4:18">
+    <row r="48" spans="4:19">
       <c r="E48" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="H48" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="I48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="J48" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:9" ht="30">
+    <row r="49" spans="4:10" ht="30">
       <c r="D49" s="35" t="s">
         <v>42</v>
       </c>
@@ -2000,56 +2583,66 @@
       </c>
       <c r="F49" s="32">
         <f>F23*F8/$E$2</f>
-        <v>7.8769230769230772E-2</v>
+        <v>0.31507692307692309</v>
       </c>
       <c r="G49" s="32">
         <f>G23*G8/$E$2</f>
-        <v>19.952876307692307</v>
+        <v>7.8769230769230772E-2</v>
       </c>
       <c r="H49" s="32">
         <f>H23*H8/$E$2</f>
-        <v>0.22153846153846155</v>
+        <v>19.952876307692307</v>
       </c>
       <c r="I49" s="32">
         <f>I23*I8/$E$2</f>
+        <v>0.22153846153846155</v>
+      </c>
+      <c r="J49" s="32">
+        <f>J23*J8/$E$2</f>
         <v>2.5206153846153847</v>
       </c>
     </row>
-    <row r="50" spans="4:9">
+    <row r="50" spans="4:10">
       <c r="E50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="H50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="I50" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="J50" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="4:9">
+    <row r="53" spans="4:10">
       <c r="E53" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="H53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="I53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="J53" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="4:9" ht="30">
+    <row r="54" spans="4:10" ht="30">
       <c r="D54" s="37" t="s">
         <v>45</v>
       </c>
@@ -2059,49 +2652,57 @@
       </c>
       <c r="F54" s="32">
         <f>1/F49</f>
-        <v>12.6953125</v>
+        <v>3.173828125</v>
       </c>
       <c r="G54" s="32">
         <f>1/G49</f>
-        <v>5.0118087466641405E-2</v>
+        <v>12.6953125</v>
       </c>
       <c r="H54" s="32">
         <f>1/H49</f>
-        <v>4.5138888888888884</v>
+        <v>5.0118087466641405E-2</v>
       </c>
       <c r="I54" s="32">
         <f>1/I49</f>
+        <v>4.5138888888888884</v>
+      </c>
+      <c r="J54" s="32">
+        <f>1/J49</f>
         <v>0.396728515625</v>
       </c>
     </row>
-    <row r="55" spans="4:9">
+    <row r="55" spans="4:10">
       <c r="E55" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="H55" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="I55" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="J55" s="26" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="E36:H36 E38:H38" formula="1"/>
+    <ignoredError sqref="G36:I36 G38:I38 E38 E36" formula="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -4,15 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28120" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="16080" yWindow="-20420" windowWidth="28120" windowHeight="19900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -53,12 +49,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="G7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+16 vaults
+8 GBps per vault</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>TPU</t>
   </si>
@@ -217,6 +238,9 @@
   </si>
   <si>
     <t>Not bad</t>
+  </si>
+  <si>
+    <t>Number of devices to meet bandwidth</t>
   </si>
 </sst>
 </file>
@@ -227,7 +251,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,111 +289,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Calibri"/>
@@ -383,7 +302,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,103 +333,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -614,115 +438,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="192">
+  <cellStyleXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -915,8 +632,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1042,38 +761,41 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="163" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="192">
+  <cellStyles count="194">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1169,6 +891,7 @@
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1264,6 +987,7 @@
     <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="163"/>
   </cellStyles>
@@ -1278,32 +1002,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="AAA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6637"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1659,14 +1357,14 @@
         <v>15</v>
       </c>
       <c r="E2" s="3">
-        <v>26000000000000</v>
+        <v>33000000000000</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="3:19">
       <c r="D3" s="1" t="s">
@@ -1696,37 +1394,37 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="3:19" s="53" customFormat="1" ht="30">
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+    <row r="6" spans="3:19" s="51" customFormat="1" ht="30">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="52"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="3:19">
       <c r="D7" s="1" t="s">
@@ -1740,7 +1438,8 @@
         <v>128000000000</v>
       </c>
       <c r="G7" s="3">
-        <v>32000000000</v>
+        <f>16*8000000000</f>
+        <v>128000000000</v>
       </c>
       <c r="H7" s="3">
         <f>4096*606000000/8</f>
@@ -1759,7 +1458,7 @@
       </c>
       <c r="M7" s="14">
         <f>$J$7/G7</f>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="N7" s="14">
         <f>$J$7/H7</f>
@@ -1784,7 +1483,7 @@
       </c>
       <c r="G8" s="2">
         <f>G7*8</f>
-        <v>256000000000</v>
+        <v>1024000000000</v>
       </c>
       <c r="H8" s="3">
         <f>H7*8</f>
@@ -1858,27 +1557,27 @@
     </row>
     <row r="12" spans="3:19" s="7" customFormat="1">
       <c r="D12" s="40" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9">
         <f>$E$2/E8</f>
-        <v>90.277777777777771</v>
+        <v>114.58333333333333</v>
       </c>
       <c r="F12" s="9">
         <f>$E$2/F8</f>
-        <v>25.390625</v>
+        <v>32.2265625</v>
       </c>
       <c r="G12" s="9">
         <f>$E$2/G8</f>
-        <v>101.5625</v>
+        <v>32.2265625</v>
       </c>
       <c r="H12" s="9">
         <f>$E$2/H8</f>
-        <v>10.474680280528053</v>
+        <v>13.294786509900991</v>
       </c>
       <c r="I12" s="9">
         <f>$E$2/I8</f>
-        <v>4.5138888888888893</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="J12" s="9"/>
       <c r="S12" s="14"/>
@@ -1887,20 +1586,20 @@
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="45">
         <f>E12*E9</f>
-        <v>3611.1111111111109</v>
-      </c>
-      <c r="F13" s="47">
+        <v>4583.333333333333</v>
+      </c>
+      <c r="F13" s="45">
         <f>F12*F9</f>
-        <v>176.2109375</v>
-      </c>
-      <c r="G13" s="47">
+        <v>223.65234375</v>
+      </c>
+      <c r="G13" s="45">
         <f>G12*G9</f>
-        <v>1117.1875</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47">
+        <v>354.4921875</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45">
         <v>250</v>
       </c>
       <c r="J13" s="2">
@@ -1914,11 +1613,11 @@
       <c r="G14" s="2">
         <v>250</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="3:19">
       <c r="D15" s="1" t="s">
@@ -1949,7 +1648,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="2">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H16" s="9">
         <v>67</v>
@@ -1966,7 +1665,7 @@
       </c>
       <c r="M16" s="15">
         <f>$J$16/G16</f>
-        <v>3.5353535353535355</v>
+        <v>5.1470588235294121</v>
       </c>
       <c r="N16" s="15">
         <f>$J$16/H16</f>
@@ -1989,19 +1688,25 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="4:19">
-      <c r="D19" s="1" t="s">
+    <row r="19" spans="4:19" s="7" customFormat="1">
+      <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
         <f>G18*1000/G17</f>
         <v>304.87804878048786</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" spans="4:19">
       <c r="L20" s="2" t="s">
@@ -2127,27 +1832,27 @@
         <v>41</v>
       </c>
       <c r="E24" s="9">
-        <f>E23*E16</f>
+        <f t="shared" ref="E24:J24" si="1">E23*E16</f>
         <v>300</v>
       </c>
       <c r="F24" s="9">
-        <f>F23*F16</f>
+        <f t="shared" si="1"/>
         <v>544</v>
       </c>
       <c r="G24" s="9">
-        <f>G23*G16</f>
-        <v>792</v>
+        <f t="shared" si="1"/>
+        <v>544</v>
       </c>
       <c r="H24" s="9">
-        <f>H23*H16</f>
+        <f t="shared" si="1"/>
         <v>14003</v>
       </c>
       <c r="I24" s="9">
-        <f>I23*I16</f>
+        <f t="shared" si="1"/>
         <v>561</v>
       </c>
       <c r="J24" s="9">
-        <f>J23*J16</f>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="P24" s="6">
@@ -2177,27 +1882,27 @@
         <v>24</v>
       </c>
       <c r="E27" s="4">
-        <f>E22/E8</f>
+        <f t="shared" ref="E27:J27" si="2">E22/E8</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="F27" s="4">
-        <f>F22/F8</f>
+        <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
       <c r="G27" s="4">
-        <f>G22/G8</f>
-        <v>3.125E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
       </c>
       <c r="H27" s="4">
-        <f>H22/H8</f>
+        <f t="shared" si="2"/>
         <v>1.1602722772277227E-4</v>
       </c>
       <c r="I27" s="4">
-        <f>I22/I8</f>
+        <f t="shared" si="2"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="J27" s="54">
-        <f>J22/J8</f>
+      <c r="J27" s="52">
+        <f t="shared" si="2"/>
         <v>9.765625E-4</v>
       </c>
       <c r="L27" s="30"/>
@@ -2242,27 +1947,27 @@
         <v>35</v>
       </c>
       <c r="E31" s="18">
-        <f>1/E27</f>
+        <f t="shared" ref="E31:J31" si="3">1/E27</f>
         <v>4.5</v>
       </c>
       <c r="F31" s="18">
-        <f>1/F27</f>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="G31" s="18">
-        <f>1/G27</f>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="H31" s="18">
-        <f>1/H27</f>
+        <f t="shared" si="3"/>
         <v>8618.6666666666679</v>
       </c>
       <c r="I31" s="18">
-        <f>1/I27</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="J31" s="18">
-        <f>1/J27</f>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
     </row>
@@ -2297,10 +2002,6 @@
         <f>$J$22/J22*J9</f>
         <v>75</v>
       </c>
-      <c r="N33" t="e">
-        <f>"Transfer to 6637 : "&amp;-([1]AAA!P128+[1]AAA!P150)+'[2]6637'!N1840&amp;"(Pets)+"&amp;'[2]6637'!P1840&amp;"(Car)"</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="34" spans="4:19">
       <c r="D34" s="19" t="s">
@@ -2360,23 +2061,23 @@
       </c>
       <c r="E36" s="21">
         <f>$E$2/E8*E9</f>
-        <v>3611.1111111111109</v>
+        <v>4583.333333333333</v>
       </c>
       <c r="F36" s="21">
         <f>$E$2/F8*F9</f>
-        <v>176.2109375</v>
+        <v>223.65234375</v>
       </c>
       <c r="G36" s="21">
         <f>$E$2/G8*G9</f>
-        <v>1117.1875</v>
+        <v>354.4921875</v>
       </c>
       <c r="H36" s="21">
         <f>$E$2/H8*H9</f>
-        <v>167.28064408003303</v>
+        <v>212.31774056311883</v>
       </c>
       <c r="I36" s="21">
         <f>$E$2/I8*I9</f>
-        <v>1128.4722222222224</v>
+        <v>1432.2916666666667</v>
       </c>
     </row>
     <row r="37" spans="4:19">
@@ -2385,23 +2086,23 @@
       </c>
       <c r="E37" s="22">
         <f>E36/$J$13</f>
-        <v>48.148148148148145</v>
+        <v>61.111111111111107</v>
       </c>
       <c r="F37" s="22">
         <f>F36/$J$13</f>
-        <v>2.3494791666666668</v>
+        <v>2.9820312499999999</v>
       </c>
       <c r="G37" s="22">
         <f>G36/$J$13</f>
-        <v>14.895833333333334</v>
+        <v>4.7265625</v>
       </c>
       <c r="H37" s="22">
         <f>H36/$J$13</f>
-        <v>2.2304085877337738</v>
+        <v>2.8309032075082512</v>
       </c>
       <c r="I37" s="22">
         <f>I36/$J$13</f>
-        <v>15.046296296296299</v>
+        <v>19.097222222222225</v>
       </c>
       <c r="J37" s="3">
         <f>J8</f>
@@ -2414,15 +2115,15 @@
       </c>
       <c r="E38" s="42">
         <f>MAX(E34,E36)</f>
-        <v>3611.1111111111109</v>
+        <v>4583.333333333333</v>
       </c>
       <c r="F38" s="42">
         <f>MAX(F34,F36)</f>
-        <v>176.2109375</v>
+        <v>223.65234375</v>
       </c>
       <c r="G38" s="42">
         <f>MAX(G34,G36)</f>
-        <v>1117.1875</v>
+        <v>354.4921875</v>
       </c>
       <c r="H38" s="42">
         <f>MAX(H34,H36)</f>
@@ -2430,7 +2131,7 @@
       </c>
       <c r="I38" s="42">
         <f>MAX(I34,I36)</f>
-        <v>1128.4722222222224</v>
+        <v>1432.2916666666667</v>
       </c>
       <c r="J38" s="3"/>
       <c r="S38" s="36"/>
@@ -2441,15 +2142,15 @@
       </c>
       <c r="E39" s="44">
         <f>E38/$J$13</f>
-        <v>48.148148148148145</v>
+        <v>61.111111111111107</v>
       </c>
       <c r="F39" s="44">
         <f>F38/$J$13</f>
-        <v>2.3494791666666668</v>
+        <v>2.9820312499999999</v>
       </c>
       <c r="G39" s="44">
         <f>G38/$J$13</f>
-        <v>14.895833333333334</v>
+        <v>4.7265625</v>
       </c>
       <c r="H39" s="44">
         <f>H38/$J$13</f>
@@ -2457,7 +2158,7 @@
       </c>
       <c r="I39" s="44">
         <f>I38/$J$13</f>
-        <v>15.046296296296299</v>
+        <v>19.097222222222225</v>
       </c>
       <c r="J39" s="3"/>
       <c r="S39" s="36"/>
@@ -2468,15 +2169,15 @@
       </c>
       <c r="E40" s="21">
         <f>MAX(E23,E12)*E16</f>
-        <v>27083.333333333332</v>
+        <v>34375</v>
       </c>
       <c r="F40" s="21">
         <f>MAX(F23,F12)*F16</f>
-        <v>1726.5625</v>
+        <v>2191.40625</v>
       </c>
       <c r="G40" s="21">
         <f>MAX(G23,G12)*G16</f>
-        <v>10054.6875</v>
+        <v>2191.40625</v>
       </c>
       <c r="H40" s="21">
         <f>MAX(H23,H12)*H16</f>
@@ -2484,7 +2185,7 @@
       </c>
       <c r="I40" s="21">
         <f>MAX(I23,I12)*I16</f>
-        <v>2532.291666666667</v>
+        <v>3214.0625</v>
       </c>
     </row>
     <row r="41" spans="4:19">
@@ -2493,15 +2194,15 @@
       </c>
       <c r="E41" s="22">
         <f>E40/$J$16</f>
-        <v>77.38095238095238</v>
+        <v>98.214285714285708</v>
       </c>
       <c r="F41" s="22">
         <f>F40/$J$16</f>
-        <v>4.9330357142857144</v>
+        <v>6.2611607142857144</v>
       </c>
       <c r="G41" s="22">
         <f>G40/$J$16</f>
-        <v>28.727678571428573</v>
+        <v>6.2611607142857144</v>
       </c>
       <c r="H41" s="22">
         <f>H40/$J$16</f>
@@ -2509,7 +2210,7 @@
       </c>
       <c r="I41" s="22">
         <f>I40/$J$16</f>
-        <v>7.2351190476190483</v>
+        <v>9.1830357142857135</v>
       </c>
     </row>
     <row r="42" spans="4:19">
@@ -2578,28 +2279,28 @@
         <v>42</v>
       </c>
       <c r="E49" s="32">
-        <f>E23*E8/$E$2</f>
-        <v>1.1076923076923076E-2</v>
+        <f t="shared" ref="E49:J49" si="4">E23*E8/$E$2</f>
+        <v>8.7272727272727276E-3</v>
       </c>
       <c r="F49" s="32">
-        <f>F23*F8/$E$2</f>
-        <v>0.31507692307692309</v>
+        <f t="shared" si="4"/>
+        <v>0.24824242424242424</v>
       </c>
       <c r="G49" s="32">
-        <f>G23*G8/$E$2</f>
-        <v>7.8769230769230772E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.24824242424242424</v>
       </c>
       <c r="H49" s="32">
-        <f>H23*H8/$E$2</f>
-        <v>19.952876307692307</v>
+        <f t="shared" si="4"/>
+        <v>15.720447999999999</v>
       </c>
       <c r="I49" s="32">
-        <f>I23*I8/$E$2</f>
-        <v>0.22153846153846155</v>
+        <f t="shared" si="4"/>
+        <v>0.17454545454545456</v>
       </c>
       <c r="J49" s="32">
-        <f>J23*J8/$E$2</f>
-        <v>2.5206153846153847</v>
+        <f t="shared" si="4"/>
+        <v>1.9859393939393939</v>
       </c>
     </row>
     <row r="50" spans="4:10">
@@ -2647,28 +2348,28 @@
         <v>45</v>
       </c>
       <c r="E54" s="32">
-        <f>1/E49</f>
-        <v>90.277777777777786</v>
+        <f t="shared" ref="E54:J54" si="5">1/E49</f>
+        <v>114.58333333333333</v>
       </c>
       <c r="F54" s="32">
-        <f>1/F49</f>
-        <v>3.173828125</v>
+        <f t="shared" si="5"/>
+        <v>4.0283203125</v>
       </c>
       <c r="G54" s="32">
-        <f>1/G49</f>
-        <v>12.6953125</v>
+        <f t="shared" si="5"/>
+        <v>4.0283203125</v>
       </c>
       <c r="H54" s="32">
-        <f>1/H49</f>
-        <v>5.0118087466641405E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3611418707660239E-2</v>
       </c>
       <c r="I54" s="32">
-        <f>1/I49</f>
-        <v>4.5138888888888884</v>
+        <f t="shared" si="5"/>
+        <v>5.7291666666666661</v>
       </c>
       <c r="J54" s="32">
-        <f>1/J49</f>
-        <v>0.396728515625</v>
+        <f t="shared" si="5"/>
+        <v>0.5035400390625</v>
       </c>
     </row>
     <row r="55" spans="4:10">

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="F8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,8 +69,38 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-16 vaults
-8 GBps per vault</t>
+ Its not clear whether Neurocube connects ditectly to a vault.
+Looking at the documentation suggests all data goes thru the NoC.
+In which case they assume the DRAM bandwidth can be maintained thru the NoC.
+Did they f%^$%^$^g prove it, I don’t think so.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cluster conencts to interconnect network, not directly to a vault
+-&gt; Limited by the interconnect network
+ Its not clear whether Neurocube connects ditectly to a vault.
+Looking at the documentation suggests all data goes thru the NoC.
+</t>
         </r>
       </text>
     </comment>
@@ -79,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>TPU</t>
   </si>
@@ -241,6 +271,9 @@
   </si>
   <si>
     <t>Number of devices to meet bandwidth</t>
+  </si>
+  <si>
+    <t>Area required to meet bandwidth</t>
   </si>
 </sst>
 </file>
@@ -439,7 +472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="194">
+  <cellStyleXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,8 +667,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -794,8 +843,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="194">
+  <cellStyles count="210">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -892,6 +944,14 @@
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -988,6 +1048,14 @@
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="163"/>
   </cellStyles>
@@ -1328,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1438,8 +1506,8 @@
         <v>128000000000</v>
       </c>
       <c r="G7" s="3">
-        <f>16*8000000000</f>
-        <v>128000000000</v>
+        <f>G8/8</f>
+        <v>32000000000</v>
       </c>
       <c r="H7" s="3">
         <f>4096*606000000/8</f>
@@ -1458,7 +1526,7 @@
       </c>
       <c r="M7" s="14">
         <f>$J$7/G7</f>
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="N7" s="14">
         <f>$J$7/H7</f>
@@ -1482,8 +1550,8 @@
         <v>1024000000000</v>
       </c>
       <c r="G8" s="2">
-        <f>G7*8</f>
-        <v>1024000000000</v>
+        <f>256000000000</f>
+        <v>256000000000</v>
       </c>
       <c r="H8" s="3">
         <f>H7*8</f>
@@ -1569,7 +1637,7 @@
       </c>
       <c r="G12" s="9">
         <f>$E$2/G8</f>
-        <v>32.2265625</v>
+        <v>128.90625</v>
       </c>
       <c r="H12" s="9">
         <f>$E$2/H8</f>
@@ -1596,9 +1664,12 @@
       </c>
       <c r="G13" s="45">
         <f>G12*G9</f>
-        <v>354.4921875</v>
-      </c>
-      <c r="H13" s="45"/>
+        <v>1417.96875</v>
+      </c>
+      <c r="H13" s="45">
+        <f>H12*H9</f>
+        <v>212.31774056311883</v>
+      </c>
       <c r="I13" s="45">
         <v>250</v>
       </c>
@@ -1648,7 +1719,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="2">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="H16" s="9">
         <v>67</v>
@@ -1665,7 +1736,7 @@
       </c>
       <c r="M16" s="15">
         <f>$J$16/G16</f>
-        <v>5.1470588235294121</v>
+        <v>3.5353535353535355</v>
       </c>
       <c r="N16" s="15">
         <f>$J$16/H16</f>
@@ -1692,15 +1763,30 @@
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="9">
+        <f>((E13/(E12*E16))*1000)*(1000000000/E10)</f>
+        <v>190.47619047619048</v>
+      </c>
+      <c r="F19" s="9">
+        <f>((F13/(F12*F16))*1000)*(1000000000/F10)</f>
+        <v>204.11764705882354</v>
+      </c>
       <c r="G19" s="9">
-        <f>G18*1000/G17</f>
-        <v>304.87804878048786</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+        <f>((G13/(G12*G16))*1000)*(1000000000/G10)</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="H19" s="9">
+        <f>((H13/(H12*H16))*1000)*(1000000000/H10)</f>
+        <v>393.33037781390078</v>
+      </c>
+      <c r="I19" s="9">
+        <f>((I13/(I12*I16))*1000)*(1000000000/I10)</f>
+        <v>59.833214913428826</v>
+      </c>
+      <c r="J19" s="9">
+        <f>((J13/J16)*1000)*(1000000000/J10)</f>
+        <v>428.57142857142856</v>
+      </c>
       <c r="L19" s="55" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1927,7 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>544</v>
+        <v>792</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="1"/>
@@ -1861,6 +1947,31 @@
       </c>
     </row>
     <row r="25" spans="4:19">
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9">
+        <f>E12*E16</f>
+        <v>34375</v>
+      </c>
+      <c r="F25" s="9">
+        <f>F12*F16</f>
+        <v>2191.40625</v>
+      </c>
+      <c r="G25" s="9">
+        <f>G12*G16</f>
+        <v>12761.71875</v>
+      </c>
+      <c r="H25" s="9">
+        <f>H12*H16</f>
+        <v>890.75069616336634</v>
+      </c>
+      <c r="I25" s="56">
+        <v>34375</v>
+      </c>
+      <c r="J25" s="56">
+        <v>34375</v>
+      </c>
       <c r="P25">
         <v>64</v>
       </c>
@@ -1891,7 +2002,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="2"/>
-        <v>7.8125E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="2"/>
@@ -1956,7 +2067,7 @@
       </c>
       <c r="G31" s="18">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H31" s="18">
         <f t="shared" si="3"/>
@@ -2069,7 +2180,7 @@
       </c>
       <c r="G36" s="21">
         <f>$E$2/G8*G9</f>
-        <v>354.4921875</v>
+        <v>1417.96875</v>
       </c>
       <c r="H36" s="21">
         <f>$E$2/H8*H9</f>
@@ -2094,7 +2205,7 @@
       </c>
       <c r="G37" s="22">
         <f>G36/$J$13</f>
-        <v>4.7265625</v>
+        <v>18.90625</v>
       </c>
       <c r="H37" s="22">
         <f>H36/$J$13</f>
@@ -2123,7 +2234,7 @@
       </c>
       <c r="G38" s="42">
         <f>MAX(G34,G36)</f>
-        <v>354.4921875</v>
+        <v>1417.96875</v>
       </c>
       <c r="H38" s="42">
         <f>MAX(H34,H36)</f>
@@ -2150,7 +2261,7 @@
       </c>
       <c r="G39" s="44">
         <f>G38/$J$13</f>
-        <v>4.7265625</v>
+        <v>18.90625</v>
       </c>
       <c r="H39" s="44">
         <f>H38/$J$13</f>
@@ -2177,7 +2288,7 @@
       </c>
       <c r="G40" s="21">
         <f>MAX(G23,G12)*G16</f>
-        <v>2191.40625</v>
+        <v>12761.71875</v>
       </c>
       <c r="H40" s="21">
         <f>MAX(H23,H12)*H16</f>
@@ -2202,7 +2313,7 @@
       </c>
       <c r="G41" s="22">
         <f>G40/$J$16</f>
-        <v>6.2611607142857144</v>
+        <v>36.462053571428569</v>
       </c>
       <c r="H41" s="22">
         <f>H40/$J$16</f>
@@ -2288,7 +2399,7 @@
       </c>
       <c r="G49" s="32">
         <f t="shared" si="4"/>
-        <v>0.24824242424242424</v>
+        <v>6.2060606060606059E-2</v>
       </c>
       <c r="H49" s="32">
         <f t="shared" si="4"/>
@@ -2357,7 +2468,7 @@
       </c>
       <c r="G54" s="32">
         <f t="shared" si="5"/>
-        <v>4.0283203125</v>
+        <v>16.11328125</v>
       </c>
       <c r="H54" s="32">
         <f t="shared" si="5"/>

--- a/DOC/SOA Comparison.xlsx
+++ b/DOC/SOA Comparison.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-20420" windowWidth="28120" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="2000" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Future" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -104,12 +105,109 @@
         </r>
       </text>
     </comment>
+    <comment ref="J60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Actual area, not silicon area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Still use the 6X
+from cell F41</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F65" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Could use excel function TEXT()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lee Baker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Could use excel function TEXT()</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>TPU</t>
   </si>
@@ -274,17 +372,119 @@
   </si>
   <si>
     <t>Area required to meet bandwidth</t>
+  </si>
+  <si>
+    <t>b/sqmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>This Work</t>
+  </si>
+  <si>
+    <t>Closest SOA</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <r>
+      <t>Power
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Watts)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gb</t>
+  </si>
+  <si>
+    <t>cell size</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>All Memory read time</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>Capacity (Gb)</t>
+  </si>
+  <si>
+    <t>sampling time</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Tbps</t>
+  </si>
+  <si>
+    <t>2019/17nm</t>
+  </si>
+  <si>
+    <t>2011/40nm</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +533,25 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -472,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="210">
+  <cellStyleXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -683,8 +902,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -834,6 +1093,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,11 +1106,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="210">
+  <cellStyles count="250">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -952,6 +1216,26 @@
     <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1056,6 +1340,26 @@
     <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="163"/>
   </cellStyles>
@@ -1394,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S55"/>
+  <dimension ref="C1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1428,11 +1732,11 @@
         <v>33000000000000</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="3:19">
       <c r="D3" s="1" t="s">
@@ -1449,6 +1753,13 @@
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="3:19">
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3">
+        <f>E1/E2</f>
+        <v>1.8181818181818182E-3</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
       <c r="L4" s="13"/>
@@ -1684,11 +1995,11 @@
       <c r="G14" s="2">
         <v>250</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="L14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="3:19">
       <c r="D15" s="1" t="s">
@@ -1787,11 +2098,11 @@
         <f>((J13/J16)*1000)*(1000000000/J10)</f>
         <v>428.57142857142856</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="4:19">
@@ -1966,10 +2277,10 @@
         <f>H12*H16</f>
         <v>890.75069616336634</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="53">
         <v>34375</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="53">
         <v>34375</v>
       </c>
       <c r="P25">
@@ -1980,6 +2291,33 @@
       </c>
     </row>
     <row r="26" spans="4:19">
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ref="E26:J26" si="2">E22/E16</f>
+        <v>213333333.33333334</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>117647058.82352941</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>80808080.808080807</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="2"/>
+        <v>4298507.4626865676</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>228163992.86987522</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>182857142.85714287</v>
+      </c>
       <c r="P26" t="s">
         <v>19</v>
       </c>
@@ -1993,27 +2331,27 @@
         <v>24</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27:J27" si="2">E22/E8</f>
+        <f t="shared" ref="E27:J27" si="3">E22/E8</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8125E-3</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1602722772277227E-4</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="J27" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.765625E-4</v>
       </c>
       <c r="L27" s="30"/>
@@ -2033,305 +2371,341 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:19">
-      <c r="E30" s="16" t="s">
+    <row r="28" spans="4:19">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="52"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="4:19">
+      <c r="D29" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3">
+        <f>E22/E8</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F29" s="3">
+        <f>F22/F8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f>G22/G8</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <f>H22/H8</f>
+        <v>1.1602722772277227E-4</v>
+      </c>
+      <c r="I29" s="3">
+        <f>I22/I8</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="J29" s="3">
+        <f>J22/J8</f>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19">
+      <c r="E31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J31" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:19" ht="30">
-      <c r="D31" s="25" t="s">
+    <row r="32" spans="4:19" ht="30">
+      <c r="D32" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="18">
-        <f t="shared" ref="E31:J31" si="3">1/E27</f>
+      <c r="E32" s="18">
+        <f t="shared" ref="E32:J32" si="4">1/E27</f>
         <v>4.5</v>
       </c>
-      <c r="F31" s="18">
-        <f t="shared" si="3"/>
+      <c r="F32" s="18">
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="G31" s="18">
-        <f t="shared" si="3"/>
+      <c r="G32" s="18">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" si="3"/>
+      <c r="H32" s="18">
+        <f t="shared" si="4"/>
         <v>8618.6666666666679</v>
       </c>
-      <c r="I31" s="18">
-        <f t="shared" si="3"/>
+      <c r="I32" s="18">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="J31" s="18">
-        <f t="shared" si="3"/>
+      <c r="J32" s="18">
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
     </row>
-    <row r="32" spans="4:19">
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-    </row>
     <row r="33" spans="4:19">
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="4:19">
+      <c r="E34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="9">
         <f>$J$22/J22*J9</f>
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="4:19">
-      <c r="D34" s="19" t="s">
+    <row r="35" spans="4:19">
+      <c r="D35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="21">
         <f>($E$1/E22)*E9</f>
         <v>37.5</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F35" s="21">
         <f>($E$1/F22)*F9</f>
         <v>52.050000000000004</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G35" s="21">
         <f>$E$1/G22*G9</f>
         <v>82.5</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H35" s="21">
         <f>$E$1/H22*H9</f>
         <v>3327.0833333333335</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I35" s="21">
         <f>$E$1/I22*I9</f>
         <v>117.1875</v>
       </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="4:19">
-      <c r="D35" s="20" t="s">
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="4:19">
+      <c r="D36" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="22">
-        <f>E34/$J$13</f>
+      <c r="E36" s="22">
+        <f>E35/$J$13</f>
         <v>0.5</v>
       </c>
-      <c r="F35" s="22">
-        <f>F34/$J$13</f>
+      <c r="F36" s="22">
+        <f>F35/$J$13</f>
         <v>0.69400000000000006</v>
       </c>
-      <c r="G35" s="22">
-        <f>G34/$J$13</f>
+      <c r="G36" s="22">
+        <f>G35/$J$13</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H35" s="22">
-        <f>H34/$J$13</f>
+      <c r="H36" s="22">
+        <f>H35/$J$13</f>
         <v>44.361111111111114</v>
       </c>
-      <c r="I35" s="22">
-        <f>I34/$J$13</f>
+      <c r="I36" s="22">
+        <f>I35/$J$13</f>
         <v>1.5625</v>
       </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="4:19">
-      <c r="D36" s="23" t="s">
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="4:19">
+      <c r="D37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <f>$E$2/E8*E9</f>
         <v>4583.333333333333</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <f>$E$2/F8*F9</f>
         <v>223.65234375</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <f>$E$2/G8*G9</f>
         <v>1417.96875</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <f>$E$2/H8*H9</f>
         <v>212.31774056311883</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <f>$E$2/I8*I9</f>
         <v>1432.2916666666667</v>
       </c>
     </row>
-    <row r="37" spans="4:19">
-      <c r="D37" s="24" t="s">
+    <row r="38" spans="4:19">
+      <c r="D38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="22">
-        <f>E36/$J$13</f>
+      <c r="E38" s="22">
+        <f>E37/$J$13</f>
         <v>61.111111111111107</v>
       </c>
-      <c r="F37" s="22">
-        <f>F36/$J$13</f>
+      <c r="F38" s="22">
+        <f>F37/$J$13</f>
         <v>2.9820312499999999</v>
       </c>
-      <c r="G37" s="22">
-        <f>G36/$J$13</f>
+      <c r="G38" s="22">
+        <f>G37/$J$13</f>
         <v>18.90625</v>
       </c>
-      <c r="H37" s="22">
-        <f>H36/$J$13</f>
+      <c r="H38" s="22">
+        <f>H37/$J$13</f>
         <v>2.8309032075082512</v>
       </c>
-      <c r="I37" s="22">
-        <f>I36/$J$13</f>
+      <c r="I38" s="22">
+        <f>I37/$J$13</f>
         <v>19.097222222222225</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J38" s="3">
         <f>J8</f>
         <v>65536000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:19">
-      <c r="D38" s="41" t="s">
+    <row r="39" spans="4:19">
+      <c r="D39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="42">
-        <f>MAX(E34,E36)</f>
+      <c r="E39" s="42">
+        <f>MAX(E35,E37)</f>
         <v>4583.333333333333</v>
       </c>
-      <c r="F38" s="42">
-        <f>MAX(F34,F36)</f>
+      <c r="F39" s="42">
+        <f>MAX(F35,F37)</f>
         <v>223.65234375</v>
       </c>
-      <c r="G38" s="42">
-        <f>MAX(G34,G36)</f>
+      <c r="G39" s="42">
+        <f>MAX(G35,G37)</f>
         <v>1417.96875</v>
       </c>
-      <c r="H38" s="42">
-        <f>MAX(H34,H36)</f>
+      <c r="H39" s="42">
+        <f>MAX(H35,H37)</f>
         <v>3327.0833333333335</v>
       </c>
-      <c r="I38" s="42">
-        <f>MAX(I34,I36)</f>
+      <c r="I39" s="42">
+        <f>MAX(I35,I37)</f>
         <v>1432.2916666666667</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="S38" s="36"/>
-    </row>
-    <row r="39" spans="4:19">
-      <c r="D39" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="44">
-        <f>E38/$J$13</f>
-        <v>61.111111111111107</v>
-      </c>
-      <c r="F39" s="44">
-        <f>F38/$J$13</f>
-        <v>2.9820312499999999</v>
-      </c>
-      <c r="G39" s="44">
-        <f>G38/$J$13</f>
-        <v>18.90625</v>
-      </c>
-      <c r="H39" s="44">
-        <f>H38/$J$13</f>
-        <v>44.361111111111114</v>
-      </c>
-      <c r="I39" s="44">
-        <f>I38/$J$13</f>
-        <v>19.097222222222225</v>
       </c>
       <c r="J39" s="3"/>
       <c r="S39" s="36"/>
     </row>
     <row r="40" spans="4:19">
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="44">
+        <f>E39/$J$13</f>
+        <v>61.111111111111107</v>
+      </c>
+      <c r="F40" s="44">
+        <f>F39/$J$13</f>
+        <v>2.9820312499999999</v>
+      </c>
+      <c r="G40" s="44">
+        <f>G39/$J$13</f>
+        <v>18.90625</v>
+      </c>
+      <c r="H40" s="44">
+        <f>H39/$J$13</f>
+        <v>44.361111111111114</v>
+      </c>
+      <c r="I40" s="44">
+        <f>I39/$J$13</f>
+        <v>19.097222222222225</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="S40" s="36"/>
+    </row>
+    <row r="41" spans="4:19">
+      <c r="D41" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E41" s="21">
         <f>MAX(E23,E12)*E16</f>
         <v>34375</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F41" s="21">
         <f>MAX(F23,F12)*F16</f>
         <v>2191.40625</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G41" s="21">
         <f>MAX(G23,G12)*G16</f>
         <v>12761.71875</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H41" s="21">
         <f>MAX(H23,H12)*H16</f>
         <v>14003</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I41" s="21">
         <f>MAX(I23,I12)*I16</f>
         <v>3214.0625</v>
       </c>
     </row>
-    <row r="41" spans="4:19">
-      <c r="D41" s="24" t="s">
+    <row r="42" spans="4:19">
+      <c r="D42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="22">
-        <f>E40/$J$16</f>
+      <c r="E42" s="22">
+        <f>E41/$J$16</f>
         <v>98.214285714285708</v>
       </c>
-      <c r="F41" s="22">
-        <f>F40/$J$16</f>
+      <c r="F42" s="22">
+        <f>F41/$J$16</f>
         <v>6.2611607142857144</v>
       </c>
-      <c r="G41" s="22">
-        <f>G40/$J$16</f>
+      <c r="G42" s="22">
+        <f>G41/$J$16</f>
         <v>36.462053571428569</v>
       </c>
-      <c r="H41" s="22">
-        <f>H40/$J$16</f>
+      <c r="H42" s="22">
+        <f>H41/$J$16</f>
         <v>40.008571428571429</v>
       </c>
-      <c r="I41" s="22">
-        <f>I40/$J$16</f>
+      <c r="I42" s="22">
+        <f>I41/$J$16</f>
         <v>9.1830357142857135</v>
       </c>
-    </row>
-    <row r="42" spans="4:19">
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="S42" s="36"/>
     </row>
     <row r="43" spans="4:19">
       <c r="D43" s="38"/>
@@ -2361,146 +2735,291 @@
       <c r="S45" s="36"/>
     </row>
     <row r="46" spans="4:19">
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="S46" s="36"/>
+    </row>
+    <row r="47" spans="4:19">
+      <c r="D47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="4:19">
-      <c r="E48" s="16" t="s">
+    <row r="49" spans="4:11">
+      <c r="E49" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F49" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H49" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J49" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="4:10" ht="30">
-      <c r="D49" s="35" t="s">
+    <row r="50" spans="4:11" ht="30">
+      <c r="D50" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="32">
-        <f t="shared" ref="E49:J49" si="4">E23*E8/$E$2</f>
+      <c r="E50" s="32">
+        <f t="shared" ref="E50:J50" si="5">E23*E8/$E$2</f>
         <v>8.7272727272727276E-3</v>
       </c>
-      <c r="F49" s="32">
-        <f t="shared" si="4"/>
+      <c r="F50" s="32">
+        <f t="shared" si="5"/>
         <v>0.24824242424242424</v>
       </c>
-      <c r="G49" s="32">
-        <f t="shared" si="4"/>
+      <c r="G50" s="32">
+        <f t="shared" si="5"/>
         <v>6.2060606060606059E-2</v>
       </c>
-      <c r="H49" s="32">
-        <f t="shared" si="4"/>
+      <c r="H50" s="32">
+        <f t="shared" si="5"/>
         <v>15.720447999999999</v>
       </c>
-      <c r="I49" s="32">
-        <f t="shared" si="4"/>
+      <c r="I50" s="32">
+        <f t="shared" si="5"/>
         <v>0.17454545454545456</v>
       </c>
-      <c r="J49" s="32">
-        <f t="shared" si="4"/>
+      <c r="J50" s="32">
+        <f t="shared" si="5"/>
         <v>1.9859393939393939</v>
       </c>
     </row>
-    <row r="50" spans="4:10">
-      <c r="E50" s="27" t="s">
+    <row r="51" spans="4:11">
+      <c r="E51" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F51" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G51" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I51" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J51" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="4:10">
-      <c r="E53" s="16" t="s">
+    <row r="54" spans="4:11">
+      <c r="E54" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H54" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J54" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="4:10" ht="30">
-      <c r="D54" s="37" t="s">
+    <row r="55" spans="4:11" ht="30">
+      <c r="D55" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E54" s="32">
-        <f t="shared" ref="E54:J54" si="5">1/E49</f>
+      <c r="E55" s="32">
+        <f t="shared" ref="E55:J55" si="6">1/E50</f>
         <v>114.58333333333333</v>
       </c>
-      <c r="F54" s="32">
-        <f t="shared" si="5"/>
+      <c r="F55" s="32">
+        <f t="shared" si="6"/>
         <v>4.0283203125</v>
       </c>
-      <c r="G54" s="32">
-        <f t="shared" si="5"/>
+      <c r="G55" s="32">
+        <f t="shared" si="6"/>
         <v>16.11328125</v>
       </c>
-      <c r="H54" s="32">
-        <f t="shared" si="5"/>
+      <c r="H55" s="32">
+        <f t="shared" si="6"/>
         <v>6.3611418707660239E-2</v>
       </c>
-      <c r="I54" s="32">
-        <f t="shared" si="5"/>
+      <c r="I55" s="32">
+        <f t="shared" si="6"/>
         <v>5.7291666666666661</v>
       </c>
-      <c r="J54" s="32">
-        <f t="shared" si="5"/>
+      <c r="J55" s="32">
+        <f t="shared" si="6"/>
         <v>0.5035400390625</v>
       </c>
     </row>
-    <row r="55" spans="4:10">
-      <c r="E55" s="27" t="s">
+    <row r="56" spans="4:11">
+      <c r="E56" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F56" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="G56" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H56" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I56" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J56" s="26" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11">
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="9">
+        <f>E40*$J$13</f>
+        <v>4583.333333333333</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" ref="F59:H59" si="7">F40*$J$13</f>
+        <v>223.65234375</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="7"/>
+        <v>1417.96875</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="7"/>
+        <v>3327.0833333333335</v>
+      </c>
+      <c r="J59" s="2">
+        <f>J13</f>
+        <v>75</v>
+      </c>
+      <c r="K59" s="54">
+        <f>MIN(E59:H59)/J59</f>
+        <v>2.9820312499999999</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11">
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="9">
+        <f>E42*($J$16)</f>
+        <v>34375</v>
+      </c>
+      <c r="F60" s="9">
+        <f>F42*($J$16)</f>
+        <v>2191.40625</v>
+      </c>
+      <c r="G60" s="9">
+        <f>G42*($J$16)</f>
+        <v>12761.71875</v>
+      </c>
+      <c r="H60" s="9">
+        <f>H42*($J$16)</f>
+        <v>14003</v>
+      </c>
+      <c r="J60" s="2">
+        <f>J24/2</f>
+        <v>175</v>
+      </c>
+      <c r="K60" s="54">
+        <f>MIN(E60:H60)/J60</f>
+        <v>12.522321428571429</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11">
+      <c r="F64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f>FIXED($J$59,0,0)&amp;"W"</f>
+        <v>75W</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f>FIXED($J$60,0,0)&amp;" sqmm"</f>
+        <v>175 sqmm</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="9" t="str">
+        <f>FIXED(F$59,0,0)&amp;"W"</f>
+        <v>224W</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f>FIXED(F$60,0,0)&amp;" sqmm"</f>
+        <v>2,191 sqmm</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" ht="30">
+      <c r="F69" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="16" t="str">
+        <f>FIXED($J$59,0,0)</f>
+        <v>75</v>
+      </c>
+      <c r="G70" s="16" t="str">
+        <f>FIXED($J$60,0,0)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="18" t="str">
+        <f>FIXED(F$59,0,0)</f>
+        <v>224</v>
+      </c>
+      <c r="G71" s="16" t="str">
+        <f>FIXED(F$60/2,0,0)</f>
+        <v>1,096</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="F74" s="2">
+        <f>224/75</f>
+        <v>2.9866666666666668</v>
+      </c>
+      <c r="G74" s="2">
+        <f>G71/G70</f>
+        <v>6.2628571428571425</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +3031,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="G36:I36 G38:I38 E38 E36" formula="1"/>
+    <ignoredError sqref="G37:I37 G39:I39 E39 E37" formula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -2521,4 +3040,162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:9">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="F6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="58">
+        <f>8000000000</f>
+        <v>8000000000</v>
+      </c>
+      <c r="G10" s="58">
+        <f>8000000000</f>
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.16E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="F12">
+        <f>F10*F11/1000000</f>
+        <v>76.8</v>
+      </c>
+      <c r="G12">
+        <f>G10*G11/1000000</f>
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="G13">
+        <f>F6/G11</f>
+        <v>8.275862068965516</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>175</v>
+      </c>
+      <c r="G14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7">
+        <v>512</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F16/F18*$I$16</f>
+        <v>4000000000000</v>
+      </c>
+      <c r="G19" s="6">
+        <f>G16/G18*$I$16</f>
+        <v>32000000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F19/1000000000000</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="7">
+        <f>G19/1000000000000</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>